--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8B9C4-A0B9-4E19-A8C3-FDF762640198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB5436-317C-4E5F-A6FA-6B5826EF5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
     <t>Pretax Income</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>Software Revenue</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -796,6 +796,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,16 +823,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22023</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10117</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>37478</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>25572</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>69705</xdr:rowOff>
+      <xdr:rowOff>117330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -846,8 +849,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17793668" y="0"/>
-          <a:ext cx="15455" cy="16432652"/>
+          <a:off x="19679242" y="47625"/>
+          <a:ext cx="15455" cy="21929580"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1237,7 +1240,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1247,39 +1250,39 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>237</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3194.6404149999998</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>118</v>
+        <v>3220.9562110000002</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>757129.77835499996</v>
+        <v>819733.35569950007</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1287,53 +1290,53 @@
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>14635+16085</f>
-        <v>30720</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>118</v>
+        <f>16352+20644</f>
+        <v>36996</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="18">
-        <f>2264+5481</f>
-        <v>7745</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>118</v>
+        <f>5292+2237</f>
+        <v>7529</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>734154.77835499996</v>
+        <v>790266.35569950007</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>7</v>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
@@ -1359,10 +1362,10 @@
   <dimension ref="A1:DE123"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ54" sqref="BJ54"/>
+      <selection pane="bottomRight" activeCell="AE91" sqref="AE91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1391,16 +1394,16 @@
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1451,40 +1454,40 @@
         <v>31</v>
       </c>
       <c r="W2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="AA2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AC2" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AE2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AG2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AH2" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>124</v>
       </c>
       <c r="AJ2" s="1">
         <v>2013</v>
@@ -1574,7 +1577,7 @@
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1602,7 +1605,7 @@
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1627,7 +1630,7 @@
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1653,7 +1656,7 @@
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1679,7 +1682,7 @@
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1706,7 +1709,7 @@
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -1734,7 +1737,7 @@
     <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:AB9" si="8">+C45</f>
@@ -1878,7 +1881,7 @@
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -1905,7 +1908,7 @@
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -1953,7 +1956,7 @@
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1977,7 +1980,7 @@
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2009,7 +2012,7 @@
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2034,7 +2037,7 @@
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2066,7 +2069,7 @@
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2094,7 +2097,7 @@
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2126,7 +2129,7 @@
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2152,7 +2155,7 @@
     <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2219,7 +2222,7 @@
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2267,7 +2270,7 @@
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -2292,7 +2295,7 @@
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2317,7 +2320,7 @@
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -2342,7 +2345,7 @@
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2367,7 +2370,7 @@
     <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2392,7 +2395,7 @@
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -2417,7 +2420,7 @@
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -2442,7 +2445,7 @@
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -2467,7 +2470,7 @@
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3787,7 +3790,9 @@
         <f>+AD38*AD37/1000000</f>
         <v>24033.031137321035</v>
       </c>
-      <c r="AE45" s="5"/>
+      <c r="AE45" s="5">
+        <v>12925</v>
+      </c>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
@@ -3943,7 +3948,9 @@
         <f t="shared" ref="AD46:AD47" si="35">+Z46</f>
         <v>433</v>
       </c>
-      <c r="AE46" s="5"/>
+      <c r="AE46" s="5">
+        <v>595</v>
+      </c>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
@@ -4055,7 +4062,9 @@
         <f t="shared" si="35"/>
         <v>500</v>
       </c>
-      <c r="AE47" s="5"/>
+      <c r="AE47" s="5">
+        <v>447</v>
+      </c>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
@@ -4153,7 +4162,7 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AD48" si="41">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AE48" si="41">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
@@ -4188,7 +4197,10 @@
         <f t="shared" si="41"/>
         <v>24966.031137321035</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="7">
+        <f t="shared" si="41"/>
+        <v>13967</v>
+      </c>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
@@ -4344,7 +4356,9 @@
         <f t="shared" ref="AD49:AD50" si="44">+Z49</f>
         <v>1438</v>
       </c>
-      <c r="AE49" s="5"/>
+      <c r="AE49" s="5">
+        <v>2730</v>
+      </c>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
@@ -4465,7 +4479,9 @@
         <f t="shared" si="44"/>
         <v>2166</v>
       </c>
-      <c r="AE50" s="5"/>
+      <c r="AE50" s="5">
+        <v>2638</v>
+      </c>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
@@ -4572,7 +4588,7 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AD51" si="48">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AE51" si="48">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
@@ -4607,7 +4623,10 @@
         <f t="shared" si="48"/>
         <v>28570.031137321035</v>
       </c>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="7">
+        <f t="shared" si="48"/>
+        <v>19335</v>
+      </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
@@ -4783,7 +4802,9 @@
         <f>+AD45*0.85</f>
         <v>20428.07646672288</v>
       </c>
-      <c r="AE52" s="5"/>
+      <c r="AE52" s="5">
+        <v>11461</v>
+      </c>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
@@ -4955,7 +4976,10 @@
         <f>AD45-AD52</f>
         <v>3604.9546705981556</v>
       </c>
-      <c r="AE53" s="5"/>
+      <c r="AE53" s="5">
+        <f>AE45-AE52</f>
+        <v>1464</v>
+      </c>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
@@ -4978,37 +5002,87 @@
     </row>
     <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0</v>
+      </c>
+      <c r="T54" s="5">
+        <v>0</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+      <c r="X54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="5">
+        <v>0</v>
+      </c>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
@@ -5099,7 +5173,9 @@
         <f>+AD47*0.5</f>
         <v>250</v>
       </c>
-      <c r="AE55" s="5"/>
+      <c r="AE55" s="5">
+        <v>239</v>
+      </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
@@ -5185,7 +5261,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AD56" si="66">V48-V55-V52</f>
+        <f t="shared" ref="V56:AE56" si="66">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5220,7 +5296,10 @@
         <f t="shared" si="66"/>
         <v>4287.9546705981556</v>
       </c>
-      <c r="AE56" s="5"/>
+      <c r="AE56" s="5">
+        <f t="shared" si="66"/>
+        <v>2267</v>
+      </c>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
@@ -5363,7 +5442,9 @@
         <f>+AD49*0.9</f>
         <v>1294.2</v>
       </c>
-      <c r="AE57" s="5"/>
+      <c r="AE57" s="5">
+        <v>1945</v>
+      </c>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
@@ -5462,7 +5543,9 @@
         <f>+AD50</f>
         <v>2166</v>
       </c>
-      <c r="AE58" s="5"/>
+      <c r="AE58" s="5">
+        <v>2537</v>
+      </c>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
@@ -5544,7 +5627,7 @@
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AD59" si="71">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AE59" si="71">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
@@ -5583,7 +5666,10 @@
         <f t="shared" si="71"/>
         <v>4431.7546705981558</v>
       </c>
-      <c r="AE59" s="5"/>
+      <c r="AE59" s="5">
+        <f t="shared" si="71"/>
+        <v>3153</v>
+      </c>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
@@ -5726,7 +5812,9 @@
         <f t="shared" si="74"/>
         <v>1203.4000000000001</v>
       </c>
-      <c r="AE60" s="5"/>
+      <c r="AE60" s="5">
+        <v>1409</v>
+      </c>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
@@ -5870,7 +5958,10 @@
         <f t="shared" si="74"/>
         <v>1408</v>
       </c>
-      <c r="AE61" s="5"/>
+      <c r="AE61" s="5">
+        <f>1251+94</f>
+        <v>1345</v>
+      </c>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
@@ -6000,7 +6091,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AD62" si="85">V60+V61</f>
+        <f t="shared" ref="V62:AE62" si="85">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6035,7 +6126,10 @@
         <f t="shared" si="85"/>
         <v>2611.4</v>
       </c>
-      <c r="AE62" s="5"/>
+      <c r="AE62" s="5">
+        <f t="shared" si="85"/>
+        <v>2754</v>
+      </c>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
@@ -6165,7 +6259,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AD63" si="95">V59-V62</f>
+        <f t="shared" ref="V63:AE64" si="95">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6200,7 +6294,10 @@
         <f t="shared" si="95"/>
         <v>1820.3546705981557</v>
       </c>
-      <c r="AE63" s="5"/>
+      <c r="AE63" s="5">
+        <f>AE59-AE62</f>
+        <v>399</v>
+      </c>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
@@ -6262,8 +6359,8 @@
       </c>
     </row>
     <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
-        <v>50</v>
+      <c r="B64" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -6359,7 +6456,10 @@
       </c>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
+      <c r="AE64" s="5">
+        <f>400-91-119</f>
+        <v>190</v>
+      </c>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
@@ -6418,7 +6518,7 @@
     </row>
     <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -6485,7 +6585,7 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AD65" si="103">V63+V64</f>
+        <f t="shared" ref="V65:AE65" si="103">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
@@ -6520,7 +6620,10 @@
         <f t="shared" si="103"/>
         <v>1820.3546705981557</v>
       </c>
-      <c r="AE65" s="5"/>
+      <c r="AE65" s="5">
+        <f t="shared" si="103"/>
+        <v>589</v>
+      </c>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
@@ -6579,7 +6682,7 @@
     </row>
     <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -6678,7 +6781,10 @@
         <f>+AD65*0.2</f>
         <v>364.07093411963115</v>
       </c>
-      <c r="AE66" s="5"/>
+      <c r="AE66" s="5">
+        <f>169+11</f>
+        <v>180</v>
+      </c>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
@@ -6737,7 +6843,7 @@
     </row>
     <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6804,7 +6910,7 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AD67" si="110">V65-V66</f>
+        <f t="shared" ref="V67:AE67" si="110">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
@@ -6839,7 +6945,10 @@
         <f t="shared" si="110"/>
         <v>1456.2837364785246</v>
       </c>
-      <c r="AE67" s="5"/>
+      <c r="AE67" s="5">
+        <f t="shared" si="110"/>
+        <v>409</v>
+      </c>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
@@ -7102,7 +7211,7 @@
     </row>
     <row r="68" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -7169,7 +7278,7 @@
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AD68" si="123">V67/V69</f>
+        <f t="shared" ref="V68:AE68" si="123">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
@@ -7204,7 +7313,10 @@
         <f t="shared" si="123"/>
         <v>0.41835212194154686</v>
       </c>
-      <c r="AE68" s="3"/>
+      <c r="AE68" s="3">
+        <f t="shared" si="123"/>
+        <v>0.12709757613424488</v>
+      </c>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
@@ -7348,7 +7460,9 @@
         <f>+AC69</f>
         <v>3481</v>
       </c>
-      <c r="AE69" s="5"/>
+      <c r="AE69" s="5">
+        <v>3218</v>
+      </c>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
@@ -7407,7 +7521,7 @@
     </row>
     <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -7466,7 +7580,7 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="22">
-        <f t="shared" ref="W71:AD71" si="139">W51/S51-1</f>
+        <f t="shared" ref="W71:AE71" si="139">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="22">
@@ -7497,7 +7611,10 @@
         <f t="shared" si="139"/>
         <v>0.13521798932415607</v>
       </c>
-      <c r="AE71" s="22"/>
+      <c r="AE71" s="22">
+        <f t="shared" si="139"/>
+        <v>-9.2296136331627587E-2</v>
+      </c>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
@@ -7592,10 +7709,10 @@
     </row>
     <row r="72" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:AD72" si="148">+K37/G37-1</f>
+        <f t="shared" ref="K72:AE72" si="148">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
@@ -7674,7 +7791,10 @@
         <f t="shared" si="148"/>
         <v>0.10948139036174909</v>
       </c>
-      <c r="AE72" s="17"/>
+      <c r="AE72" s="17">
+        <f t="shared" si="148"/>
+        <v>-1</v>
+      </c>
       <c r="AF72" s="17"/>
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
@@ -7745,10 +7865,10 @@
     </row>
     <row r="73" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" ref="K73:AD73" si="151">+K42/G42-1</f>
+        <f t="shared" ref="K73:AE73" si="151">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="17">
@@ -7827,7 +7947,10 @@
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="AE73" s="17"/>
+      <c r="AE73" s="17">
+        <f t="shared" si="151"/>
+        <v>-1</v>
+      </c>
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
@@ -7898,7 +8021,7 @@
     </row>
     <row r="74" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K74" s="17">
         <f t="shared" ref="K74:O74" si="154">K45/G45-1</f>
@@ -7961,7 +8084,7 @@
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AD74" si="160">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AE74" si="160">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="17">
@@ -7980,14 +8103,17 @@
         <f t="shared" si="160"/>
         <v>0.16495545987983684</v>
       </c>
-      <c r="AE74" s="17"/>
+      <c r="AE74" s="17">
+        <f t="shared" si="160"/>
+        <v>-0.21476306196840822</v>
+      </c>
       <c r="AF74" s="17"/>
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
     </row>
     <row r="75" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B75" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -8089,28 +8215,31 @@
         <f t="shared" si="165"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="AE75" s="17"/>
+      <c r="AE75" s="17">
+        <f t="shared" ref="AE75" si="166">AE53/AE45</f>
+        <v>0.1132688588007737</v>
+      </c>
       <c r="AF75" s="17"/>
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
       <c r="AQ75" s="17">
-        <f t="shared" ref="AQ75:AU75" si="166">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="167">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.14851006001488046</v>
       </c>
       <c r="AV75" s="17"/>
@@ -8126,31 +8255,31 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:K76" si="167">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="168">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" ref="L76" si="168">+L59/L51</f>
+        <f t="shared" ref="L76" si="169">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="17">
-        <f t="shared" ref="M76" si="169">+M59/M51</f>
+        <f t="shared" ref="M76" si="170">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="17">
@@ -8158,135 +8287,138 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="17">
-        <f t="shared" ref="O76:AD76" si="170">+O59/O51</f>
+        <f t="shared" ref="O76:AD76" si="171">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="41">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.15717279857679209</v>
       </c>
       <c r="AD76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.15511900037130005</v>
       </c>
-      <c r="AE76" s="17"/>
+      <c r="AE76" s="17">
+        <f t="shared" ref="AE76" si="172">+AE59/AE51</f>
+        <v>0.16307214895267649</v>
+      </c>
       <c r="AF76" s="17"/>
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
       <c r="AQ76" s="17">
-        <f t="shared" ref="AQ76:BF76" si="171">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="173">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AS76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.16471225777031828</v>
       </c>
       <c r="AV76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.22985752587485617</v>
       </c>
       <c r="AW76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.25506572778682646</v>
       </c>
       <c r="AX76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.25239469462195546</v>
       </c>
       <c r="AY76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.2688449395488649</v>
       </c>
       <c r="AZ76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.28443112518959862</v>
       </c>
       <c r="BA76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.2993291081869508</v>
       </c>
       <c r="BB76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.29953516962407462</v>
       </c>
       <c r="BC76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.29968042854680105</v>
       </c>
       <c r="BD76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.2997689777818105</v>
       </c>
       <c r="BE76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.29980465126954314</v>
       </c>
       <c r="BF76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.29979104278173424</v>
       </c>
     </row>
@@ -8312,7 +8444,7 @@
     </row>
     <row r="78" spans="2:109" x14ac:dyDescent="0.2">
       <c r="BG78" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BH78" s="26">
         <v>-0.01</v>
@@ -8320,7 +8452,7 @@
     </row>
     <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -8333,27 +8465,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="172">M67</f>
+        <f t="shared" ref="M79:R79" si="174">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8369,31 +8501,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="173">V67</f>
+        <f t="shared" ref="V79:AD79" si="175">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8401,7 +8533,7 @@
         <v>1157.0966856192958</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE79" s="5"/>
@@ -8409,7 +8541,7 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="BG79" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BH79" s="30">
         <v>0.08</v>
@@ -8417,7 +8549,7 @@
     </row>
     <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -8481,16 +8613,16 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="BG80" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1180885.0517001939</v>
+        <v>1187377.0517001939</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -8554,7 +8686,7 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="BG81" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BH81" s="26">
         <v>0.1</v>
@@ -8562,7 +8694,7 @@
     </row>
     <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -8626,16 +8758,16 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="BG82" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BH82" s="20">
         <f>BH80/Main!K3</f>
-        <v>369.64568724401926</v>
+        <v>368.64116551635846</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -8679,7 +8811,7 @@
     </row>
     <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -8748,7 +8880,7 @@
     </row>
     <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -8792,7 +8924,7 @@
     </row>
     <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -8834,7 +8966,7 @@
     </row>
     <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -8901,7 +9033,7 @@
     </row>
     <row r="88" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -8915,59 +9047,59 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="174">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="176">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>1641</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>3147</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>4585</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="175">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AA88" si="177">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>2351</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>5100</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>3278</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>2513</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>242</v>
       </c>
       <c r="AB88" s="5">
@@ -9028,7 +9160,7 @@
     </row>
     <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -9109,7 +9241,7 @@
     </row>
     <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -9127,59 +9259,59 @@
         <v>1868</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="176">O88-O90</f>
+        <f t="shared" ref="O91:R91" si="178">O88-O90</f>
         <v>293</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>619</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1328</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2775</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" ref="S91" si="177">S88-S90</f>
+        <f t="shared" ref="S91" si="179">S88-S90</f>
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AB91" si="178">T88-T90</f>
+        <f t="shared" ref="T91:AB91" si="180">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>3297</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>1420</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>441</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>1005</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>848</v>
       </c>
       <c r="Z91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>2064</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>-2531</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>1342</v>
       </c>
       <c r="AC91" s="5"/>
@@ -9203,7 +9335,7 @@
     </row>
     <row r="92" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -9220,51 +9352,51 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="179">SUM(N91:Q91)</f>
+        <f t="shared" ref="Q92:V92" si="181">SUM(N91:Q91)</f>
         <v>4108</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>5015</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>6950</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>6952</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>8921</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AB92" si="180">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AB92" si="182">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>6163</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>3714</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>4358</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1386</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1723</v>
       </c>
       <c r="AC92" s="5"/>
@@ -9310,7 +9442,7 @@
     </row>
     <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -9337,23 +9469,23 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AB94" si="181">X95-X112</f>
+        <f t="shared" ref="X94:AB94" si="183">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>26958</v>
       </c>
       <c r="Z94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>23864</v>
       </c>
       <c r="AA94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>21503</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>22975</v>
       </c>
       <c r="AC94" s="5"/>
@@ -9371,47 +9503,47 @@
         <v>29706.38042209782</v>
       </c>
       <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="182">AU94+AV67</f>
+        <f t="shared" ref="AV94:BA94" si="184">AU94+AV67</f>
         <v>42726.525422436767</v>
       </c>
       <c r="AW94" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>65082.757421067377</v>
       </c>
       <c r="AX94" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>95478.792909692886</v>
       </c>
       <c r="AY94" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>139316.79431035591</v>
       </c>
       <c r="AZ94" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>198410.46156737866</v>
       </c>
       <c r="BA94" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>273568.38671984122</v>
       </c>
       <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="183">BA94+BB67</f>
+        <f t="shared" ref="BB94" si="185">BA94+BB67</f>
         <v>360386.09179739625</v>
       </c>
       <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="184">BB94+BC67</f>
+        <f t="shared" ref="BC94" si="186">BB94+BC67</f>
         <v>460286.30061216251</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="185">BC94+BD67</f>
+        <f t="shared" ref="BD94" si="187">BC94+BD67</f>
         <v>574847.05414824269</v>
       </c>
       <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="186">BD94+BE67</f>
+        <f t="shared" ref="BE94" si="188">BD94+BE67</f>
         <v>705817.63237332762</v>
       </c>
       <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="187">BE94+BF67</f>
+        <f t="shared" ref="BF94" si="189">BE94+BF67</f>
         <v>855136.04486986867</v>
       </c>
     </row>
@@ -9457,7 +9589,7 @@
         <v>25105</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="188">X95+Y67</f>
+        <f t="shared" ref="Y95" si="190">X95+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z95" s="36">
@@ -9480,7 +9612,7 @@
     </row>
     <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -9531,7 +9663,7 @@
     </row>
     <row r="97" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -9582,7 +9714,7 @@
     </row>
     <row r="98" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -9633,7 +9765,7 @@
     </row>
     <row r="99" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -9684,7 +9816,7 @@
     </row>
     <row r="100" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -9735,7 +9867,7 @@
     </row>
     <row r="101" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -9786,7 +9918,7 @@
     </row>
     <row r="102" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -9837,7 +9969,7 @@
     </row>
     <row r="103" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -9888,7 +10020,7 @@
     </row>
     <row r="104" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -9943,7 +10075,7 @@
     </row>
     <row r="105" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -9997,7 +10129,7 @@
     </row>
     <row r="106" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -10020,39 +10152,39 @@
         <v>62131</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="189">SUM(T95:T105)</f>
+        <f t="shared" ref="T106:AB106" si="191">SUM(T95:T105)</f>
         <v>68513</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>74426</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>86833</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>25105</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>26958</v>
       </c>
       <c r="Z106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>106618</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>109226</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>112832</v>
       </c>
       <c r="AC106" s="5"/>
@@ -10071,7 +10203,7 @@
     </row>
     <row r="108" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S108" s="5">
         <v>10025</v>
@@ -10097,7 +10229,7 @@
     </row>
     <row r="109" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S109" s="5">
         <v>5719</v>
@@ -10123,7 +10255,7 @@
     </row>
     <row r="110" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S110" s="5">
         <f>1447+2052</f>
@@ -10156,7 +10288,7 @@
     </row>
     <row r="111" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S111" s="5">
         <v>925</v>
@@ -10223,7 +10355,7 @@
     </row>
     <row r="113" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S113" s="5">
         <v>3546</v>
@@ -10249,7 +10381,7 @@
     </row>
     <row r="114" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S114" s="5">
         <f>30189+826+568</f>
@@ -10282,7 +10414,7 @@
     </row>
     <row r="115" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S115" s="5">
         <f>SUM(S108:S114)</f>
@@ -10322,7 +10454,7 @@
     </row>
     <row r="117" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B117" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S117" s="5"/>
       <c r="Z117" s="5">
@@ -10341,7 +10473,7 @@
     </row>
     <row r="118" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B118" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S118" s="5"/>
       <c r="Z118" s="5"/>
@@ -10354,57 +10486,57 @@
         <v>1201</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" ref="AU118:BA118" si="190">+AU37*AU123*8/1000</f>
+        <f t="shared" ref="AU118:BA118" si="192">+AU37*AU123*8/1000</f>
         <v>1774.5040319999998</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>2853.2522470400008</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>4458.2066360000008</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>6419.8175558400008</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>8987.7445781760016</v>
       </c>
       <c r="AZ118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>11812.464302745599</v>
       </c>
       <c r="BA118" s="4">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>14617.924574647679</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="191">+BB37*BB123*8/1000</f>
+        <f t="shared" ref="BB118:BF118" si="193">+BB37*BB123*8/1000</f>
         <v>15775.176936807287</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>17011.609723746242</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>18332.247847037066</v>
       </c>
       <c r="BE118" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>19742.420758347613</v>
       </c>
       <c r="BF118" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>21247.780341171616</v>
       </c>
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B119" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S119" s="5"/>
       <c r="Z119" s="5"/>
@@ -10428,7 +10560,7 @@
     </row>
     <row r="121" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B121" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S121" s="5"/>
       <c r="Z121" s="5"/>
@@ -10444,53 +10576,53 @@
         <v>221.81300399999998</v>
       </c>
       <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="192">+AV118/8</f>
+        <f t="shared" ref="AV121:BA121" si="194">+AV118/8</f>
         <v>356.6565308800001</v>
       </c>
       <c r="AW121" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>557.2758295000001</v>
       </c>
       <c r="AX121" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>802.47719448000009</v>
       </c>
       <c r="AY121" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>1123.4680722720002</v>
       </c>
       <c r="AZ121" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>1476.5580378431998</v>
       </c>
       <c r="BA121" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>1827.2405718309599</v>
       </c>
       <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="193">+BB118/8</f>
+        <f t="shared" ref="BB121:BF121" si="195">+BB118/8</f>
         <v>1971.8971171009109</v>
       </c>
       <c r="BC121" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>2126.4512154682802</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>2291.5309808796333</v>
       </c>
       <c r="BE121" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>2467.8025947934516</v>
       </c>
       <c r="BF121" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>2655.972542646452</v>
       </c>
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B122" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S122" s="5"/>
       <c r="AT122" s="26">
@@ -10500,7 +10632,7 @@
     </row>
     <row r="123" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B123" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S123" s="5"/>
       <c r="AT123" s="26">
@@ -10578,10 +10710,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>99</v>
       </c>
       <c r="D4" s="28">
         <v>100000</v>
@@ -10589,7 +10721,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="28">
         <v>550000</v>
@@ -10597,10 +10729,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="28">
         <v>750000</v>
@@ -10611,10 +10743,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="28">
         <v>350000</v>
@@ -10625,10 +10757,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="28">
         <v>250000</v>
@@ -10636,7 +10768,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="28">
         <v>300000</v>
@@ -10647,10 +10779,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="D10" s="28">
         <v>300000</v>
@@ -10658,7 +10790,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="28">
         <v>300000</v>
@@ -10666,7 +10798,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="28">
         <v>300000</v>
@@ -10674,12 +10806,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB5436-317C-4E5F-A6FA-6B5826EF5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77821B26-A675-45EF-8BD3-261E3708DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>Price</t>
   </si>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Founded: 2003 by Martin Eberhard and Marc Tarpenning</t>
+  </si>
+  <si>
+    <t>CEO:</t>
+  </si>
+  <si>
+    <t>Elon Musk (since 2008)</t>
   </si>
 </sst>
 </file>
@@ -1240,12 +1249,13 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -1333,17 +1343,28 @@
       <c r="B9" s="33" t="s">
         <v>159</v>
       </c>
+      <c r="J9" s="33" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6259,7 +6280,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AE64" si="95">V59-V62</f>
+        <f t="shared" ref="V63:AD63" si="95">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77821B26-A675-45EF-8BD3-261E3708DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4452826-844E-4CD9-B3F8-9CBD314CD29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -808,6 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,13 +833,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>10117</xdr:colOff>
+      <xdr:colOff>551851</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>25572</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7712</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>117330</xdr:rowOff>
     </xdr:to>
@@ -858,7 +858,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19679242" y="47625"/>
+          <a:off x="20220976" y="47625"/>
           <a:ext cx="15455" cy="21929580"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -885,15 +885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>21322</xdr:colOff>
+      <xdr:colOff>705932</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>21322</xdr:colOff>
+      <xdr:colOff>705932</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>20053</xdr:rowOff>
+      <xdr:rowOff>43865</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -908,8 +908,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28857006" y="0"/>
-          <a:ext cx="0" cy="19591421"/>
+          <a:off x="29465479" y="23812"/>
+          <a:ext cx="0" cy="20433319"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1259,32 +1259,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="11">
-        <v>254.5</v>
+      <c r="K2" s="42">
+        <v>312.19</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>124</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3220.9562110000002</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>120</v>
+        <v>3225.4488889999998</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>125</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>819733.35569950007</v>
+        <v>1006952.8886569099</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1300,30 +1300,30 @@
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>16352+20644</f>
-        <v>36996</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>120</v>
+        <f>15587+21195</f>
+        <v>36782</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>156</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="18">
-        <f>5292+2237</f>
-        <v>7529</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>120</v>
+      <c r="K6" s="17">
+        <f>2040+5180</f>
+        <v>7220</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1331,30 +1331,31 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>790266.35569950007</v>
+        <v>977390.88865690993</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="D9" s="32"/>
+      <c r="J9" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="32" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1364,7 +1365,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1382,11 +1383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE91" sqref="AE91"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1408,22 +1409,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="13"/>
+      <c r="C2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1474,40 +1475,40 @@
       <c r="V2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AE2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AH2" s="30" t="s">
         <v>123</v>
       </c>
       <c r="AJ2" s="1">
@@ -1596,168 +1597,168 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="36">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="35">
         <f>158800/2*1.12</f>
         <v>88928.000000000015</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AB3" s="35">
         <f>158800/2*1.12</f>
         <v>88928.000000000015</v>
       </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="36">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="35">
         <f>10845224/145</f>
         <v>74794.64827586207</v>
       </c>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="36">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="35">
         <v>41254</v>
       </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="36">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="35">
         <v>44060</v>
       </c>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="36">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="35">
         <v>44811</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="36">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="35">
         <v>42427</v>
       </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="35">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="34">
         <f>63009-AB7</f>
         <v>30939</v>
       </c>
-      <c r="AB7" s="36">
+      <c r="AB7" s="35">
         <v>32070</v>
       </c>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35">
         <f>28244*1.12</f>
         <v>31633.280000000002</v>
       </c>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="36">
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="35">
         <f>27710*1.12</f>
         <v>31035.200000000004</v>
       </c>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-    </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="23" t="s">
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+    </row>
+    <row r="9" spans="1:58" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="7">
@@ -1864,12 +1865,12 @@
         <f t="shared" si="8"/>
         <v>18530</v>
       </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
       <c r="AO9" s="6">
         <f t="shared" ref="AO9:AU9" si="9">+AO45</f>
         <v>0</v>
@@ -1900,303 +1901,303 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="35">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="34">
         <v>16300</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10" s="34">
         <f>(228316.903/7)-AA10</f>
         <v>16316.700428571428</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="36">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="35">
         <f>9728.5/1.12</f>
         <v>8686.1607142857138</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11" s="34">
         <f>9728.5/1.12</f>
         <v>8686.1607142857138</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="36">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="35">
         <v>2186000</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="W14" s="37">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="W14" s="36">
         <f>4372000-X14</f>
         <v>2041000</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="36">
         <v>2331000</v>
       </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="35">
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="34">
         <f>4348000-AB14</f>
         <v>2104000</v>
       </c>
-      <c r="AB14" s="36">
+      <c r="AB14" s="35">
         <v>2244000</v>
       </c>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34">
         <f>375000+26000+741000</f>
         <v>1142000</v>
       </c>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="W16" s="37">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="W16" s="36">
         <f>1844000-X16</f>
         <v>865000</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="35">
         <v>979000</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="35">
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="34">
         <f>1938000-AB16</f>
         <v>895000</v>
       </c>
-      <c r="AB16" s="36">
+      <c r="AB16" s="35">
         <v>1043000</v>
       </c>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="37">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="36">
         <f>252657+246259+209448</f>
         <v>708364</v>
       </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35">
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34">
         <f>341671+344008+334039</f>
         <v>1019718</v>
       </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="W18" s="37">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="W18" s="36">
         <f>1214864-X18</f>
         <v>588138</v>
       </c>
-      <c r="X18" s="37">
+      <c r="X18" s="36">
         <v>626726</v>
       </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="35">
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="34">
         <f>1213276-AB18</f>
         <v>594533</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AB18" s="34">
         <v>618743</v>
       </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="37">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="36">
         <v>515746</v>
       </c>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35">
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34">
         <v>496712</v>
       </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-    </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="23" t="s">
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+    </row>
+    <row r="20" spans="1:47" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="7">
         <f t="shared" ref="V20:AA20" si="10">+V42</f>
         <v>439701</v>
@@ -2225,12 +2226,12 @@
         <f>+AB42</f>
         <v>410831</v>
       </c>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
       <c r="AT20" s="6">
         <f>+AT37</f>
         <v>1808581</v>
@@ -2241,322 +2242,322 @@
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35">
         <f>+AB21</f>
         <v>77972.5</v>
       </c>
-      <c r="AB21" s="35">
+      <c r="AB21" s="34">
         <f>155945/2</f>
         <v>77972.5</v>
       </c>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="35">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="34">
         <f>+AB4*1000000/AB13</f>
         <v>34215.301132599299</v>
       </c>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35">
         <f>+AB3*1000000/AB14</f>
         <v>39629.233511586463</v>
       </c>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="35">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="34">
         <f>+AB5*1000000/AB16</f>
         <v>42243.528283796739</v>
       </c>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="35">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="34">
         <f>+AB6*1000000/AB15</f>
         <v>37151.488616462346</v>
       </c>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="35">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="34">
         <f>+AB10*1000000/AB17</f>
         <v>16001.188984181341</v>
       </c>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="35">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="34">
         <f>+AB7*1000000/AB18</f>
         <v>51830.889399960892</v>
       </c>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="35">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="34">
         <f>+AB8*1000000/AB19</f>
         <v>62481.27687674146</v>
       </c>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="35">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="34">
         <f>+AB9*1000000/AB20</f>
         <v>45103.704442946124</v>
       </c>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="35">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="34">
         <f>+AB11*1000000/AB21</f>
         <v>111400.31054904887</v>
       </c>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
+      <c r="A33" s="13"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
       <c r="AU33" s="1">
         <f>+AU37*8/1000</f>
         <v>14787.533599999999</v>
       </c>
     </row>
     <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="5"/>
@@ -2676,8 +2677,12 @@
         <f>+Z35*1.3</f>
         <v>29859.7</v>
       </c>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
+      <c r="AE35" s="5">
+        <v>12881</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>10394</v>
+      </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AP35" s="4">
@@ -2787,8 +2792,12 @@
         <f>+Z36*1.1</f>
         <v>507691.80000000005</v>
       </c>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
+      <c r="AE36" s="5">
+        <v>323800</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>373728</v>
+      </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AP36" s="4">
@@ -2873,7 +2882,7 @@
         <v>308600</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" ref="S37:AD37" si="12">S36+S35</f>
+        <f t="shared" ref="S37:AF37" si="12">S36+S35</f>
         <v>310048</v>
       </c>
       <c r="T37" s="7">
@@ -2920,8 +2929,14 @@
         <f t="shared" si="12"/>
         <v>537551.5</v>
       </c>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
+      <c r="AE37" s="7">
+        <f t="shared" si="12"/>
+        <v>336681</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="12"/>
+        <v>384122</v>
+      </c>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AP37" s="6">
@@ -3097,8 +3112,14 @@
         <f>+Z38*1.05</f>
         <v>44708.332387354574</v>
       </c>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
+      <c r="AE38" s="5">
+        <f>+AA38*1.05</f>
+        <v>44680.851063829788</v>
+      </c>
+      <c r="AF38" s="5">
+        <f>+AB38*1.05</f>
+        <v>43825.288992602873</v>
+      </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AP38" s="5">
@@ -3286,8 +3307,12 @@
         <f>+Z40</f>
         <v>18212</v>
       </c>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
+      <c r="AE40" s="5">
+        <v>17161</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>13409</v>
+      </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AP40" s="4">
@@ -3397,8 +3422,12 @@
         <f>+Y41</f>
         <v>416800</v>
       </c>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
+      <c r="AE41" s="5">
+        <v>345454</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>396835</v>
+      </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AP41" s="4">
@@ -3530,8 +3559,14 @@
         <f>+Z42</f>
         <v>494989</v>
       </c>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
+      <c r="AE42" s="7">
+        <f>+AE40+AE41</f>
+        <v>362615</v>
+      </c>
+      <c r="AF42" s="7">
+        <f>+AF40+AF41</f>
+        <v>410244</v>
+      </c>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AP42" s="6">
@@ -3636,10 +3671,10 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AT43" s="26"/>
+      <c r="AT43" s="25"/>
     </row>
     <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C44" s="5"/>
@@ -3674,7 +3709,7 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-      <c r="AT44" s="26"/>
+      <c r="AT44" s="25"/>
       <c r="AU44" s="4">
         <f>+AU118-AT118</f>
         <v>573.50403199999982</v>
@@ -3775,7 +3810,7 @@
       <c r="S45" s="5">
         <v>15514</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="11">
         <v>13670</v>
       </c>
       <c r="U45" s="5">
@@ -3800,7 +3835,7 @@
       <c r="AA45" s="5">
         <v>16460</v>
       </c>
-      <c r="AB45" s="36">
+      <c r="AB45" s="35">
         <v>18530</v>
       </c>
       <c r="AC45" s="5">
@@ -3814,7 +3849,9 @@
       <c r="AE45" s="5">
         <v>12925</v>
       </c>
-      <c r="AF45" s="5"/>
+      <c r="AF45" s="5">
+        <v>15787</v>
+      </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AP45" s="4">
@@ -3829,7 +3866,7 @@
         <f>SUM(O45:R45)</f>
         <v>44125</v>
       </c>
-      <c r="AS45" s="39">
+      <c r="AS45" s="38">
         <f>SUM(S45:V45)</f>
         <v>68004</v>
       </c>
@@ -3972,7 +4009,9 @@
       <c r="AE46" s="5">
         <v>595</v>
       </c>
-      <c r="AF46" s="5"/>
+      <c r="AF46" s="5">
+        <v>439</v>
+      </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AP46" s="4">
@@ -4086,7 +4125,9 @@
       <c r="AE47" s="5">
         <v>447</v>
       </c>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="5">
+        <v>435</v>
+      </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AP47" s="4">
@@ -4183,7 +4224,7 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AE48" si="41">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AF48" si="41">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
@@ -4222,7 +4263,10 @@
         <f t="shared" si="41"/>
         <v>13967</v>
       </c>
-      <c r="AF48" s="7"/>
+      <c r="AF48" s="7">
+        <f t="shared" si="41"/>
+        <v>16661</v>
+      </c>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
       <c r="AP48" s="6">
@@ -4380,7 +4424,9 @@
       <c r="AE49" s="5">
         <v>2730</v>
       </c>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="5">
+        <v>2789</v>
+      </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AJ49" s="4">
@@ -4503,7 +4549,9 @@
       <c r="AE50" s="5">
         <v>2638</v>
       </c>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="5">
+        <v>3046</v>
+      </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AJ50" s="4">
@@ -4609,7 +4657,7 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AE51" si="48">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AF51" si="48">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
@@ -4648,7 +4696,10 @@
         <f t="shared" si="48"/>
         <v>19335</v>
       </c>
-      <c r="AF51" s="7"/>
+      <c r="AF51" s="7">
+        <f t="shared" si="48"/>
+        <v>22496</v>
+      </c>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AJ51" s="6">
@@ -4826,7 +4877,9 @@
       <c r="AE52" s="5">
         <v>11461</v>
       </c>
-      <c r="AF52" s="5"/>
+      <c r="AF52" s="5">
+        <v>13567</v>
+      </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AJ52" s="4">
@@ -5001,7 +5054,10 @@
         <f>AE45-AE52</f>
         <v>1464</v>
       </c>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="5">
+        <f>AF45-AF52</f>
+        <v>2220</v>
+      </c>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
@@ -5022,7 +5078,7 @@
       </c>
     </row>
     <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="5"/>
@@ -5104,7 +5160,9 @@
       <c r="AE54" s="5">
         <v>0</v>
       </c>
-      <c r="AF54" s="5"/>
+      <c r="AF54" s="5">
+        <v>0</v>
+      </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AU54" s="4">
@@ -5197,7 +5255,9 @@
       <c r="AE55" s="5">
         <v>239</v>
       </c>
-      <c r="AF55" s="5"/>
+      <c r="AF55" s="5">
+        <v>228</v>
+      </c>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
@@ -5282,7 +5342,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AE56" si="66">V48-V55-V52</f>
+        <f t="shared" ref="V56:AF56" si="66">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5321,7 +5381,10 @@
         <f t="shared" si="66"/>
         <v>2267</v>
       </c>
-      <c r="AF56" s="5"/>
+      <c r="AF56" s="5">
+        <f t="shared" si="66"/>
+        <v>2866</v>
+      </c>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
@@ -5466,7 +5529,9 @@
       <c r="AE57" s="5">
         <v>1945</v>
       </c>
-      <c r="AF57" s="5"/>
+      <c r="AF57" s="5">
+        <v>1943</v>
+      </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
@@ -5567,7 +5632,9 @@
       <c r="AE58" s="5">
         <v>2537</v>
       </c>
-      <c r="AF58" s="5"/>
+      <c r="AF58" s="5">
+        <v>2880</v>
+      </c>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
@@ -5648,7 +5715,7 @@
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AE59" si="71">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AF59" si="71">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
@@ -5691,7 +5758,10 @@
         <f t="shared" si="71"/>
         <v>3153</v>
       </c>
-      <c r="AF59" s="5"/>
+      <c r="AF59" s="5">
+        <f t="shared" si="71"/>
+        <v>3878</v>
+      </c>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
@@ -5836,7 +5906,9 @@
       <c r="AE60" s="5">
         <v>1409</v>
       </c>
-      <c r="AF60" s="5"/>
+      <c r="AF60" s="5">
+        <v>1589</v>
+      </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AS60" s="4">
@@ -5983,7 +6055,9 @@
         <f>1251+94</f>
         <v>1345</v>
       </c>
-      <c r="AF61" s="5"/>
+      <c r="AF61" s="5">
+        <v>1366</v>
+      </c>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AS61" s="4">
@@ -6112,7 +6186,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AE62" si="85">V60+V61</f>
+        <f t="shared" ref="V62:AF62" si="85">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6151,7 +6225,10 @@
         <f t="shared" si="85"/>
         <v>2754</v>
       </c>
-      <c r="AF62" s="5"/>
+      <c r="AF62" s="5">
+        <f t="shared" si="85"/>
+        <v>2955</v>
+      </c>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
@@ -6319,7 +6396,10 @@
         <f>AE59-AE62</f>
         <v>399</v>
       </c>
-      <c r="AF63" s="5"/>
+      <c r="AF63" s="5">
+        <f>AF59-AF62</f>
+        <v>923</v>
+      </c>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
@@ -6380,7 +6460,7 @@
       </c>
     </row>
     <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>166</v>
       </c>
       <c r="C64" s="5"/>
@@ -6481,7 +6561,10 @@
         <f>400-91-119</f>
         <v>190</v>
       </c>
-      <c r="AF64" s="5"/>
+      <c r="AF64" s="5">
+        <f>392-86+320</f>
+        <v>626</v>
+      </c>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AT64" s="4">
@@ -6606,7 +6689,7 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AE65" si="103">V63+V64</f>
+        <f t="shared" ref="V65:AF65" si="103">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
@@ -6645,7 +6728,10 @@
         <f t="shared" si="103"/>
         <v>589</v>
       </c>
-      <c r="AF65" s="5"/>
+      <c r="AF65" s="5">
+        <f t="shared" si="103"/>
+        <v>1549</v>
+      </c>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AT65" s="4">
@@ -6806,7 +6892,10 @@
         <f>169+11</f>
         <v>180</v>
       </c>
-      <c r="AF66" s="5"/>
+      <c r="AF66" s="35">
+        <f>359+18</f>
+        <v>377</v>
+      </c>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AT66" s="4">
@@ -6931,7 +7020,7 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AE67" si="110">V65-V66</f>
+        <f t="shared" ref="V67:AF67" si="110">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
@@ -6970,7 +7059,10 @@
         <f t="shared" si="110"/>
         <v>409</v>
       </c>
-      <c r="AF67" s="5"/>
+      <c r="AF67" s="5">
+        <f t="shared" si="110"/>
+        <v>1172</v>
+      </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AT67" s="4">
@@ -7299,7 +7391,7 @@
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AE68" si="123">V67/V69</f>
+        <f t="shared" ref="V68:AF68" si="123">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
@@ -7338,58 +7430,61 @@
         <f t="shared" si="123"/>
         <v>0.12709757613424488</v>
       </c>
-      <c r="AF68" s="3"/>
+      <c r="AF68" s="3">
+        <f t="shared" si="123"/>
+        <v>0.36363636363636365</v>
+      </c>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
-      <c r="AT68" s="20">
+      <c r="AT68" s="19">
         <f>+AT67/AT69</f>
         <v>2.6545115210681214</v>
       </c>
-      <c r="AU68" s="20">
+      <c r="AU68" s="19">
         <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
         <v>1.6780011264731298</v>
       </c>
-      <c r="AV68" s="20">
+      <c r="AV68" s="19">
         <f t="shared" si="124"/>
         <v>3.7395404610724348</v>
       </c>
-      <c r="AW68" s="20">
+      <c r="AW68" s="19">
         <f t="shared" si="124"/>
         <v>6.4209756583989677</v>
       </c>
-      <c r="AX68" s="20">
+      <c r="AX68" s="19">
         <f t="shared" si="124"/>
         <v>8.7301028185899359</v>
       </c>
-      <c r="AY68" s="20">
+      <c r="AY68" s="19">
         <f t="shared" si="124"/>
         <v>12.590795261194229</v>
       </c>
-      <c r="AZ68" s="20">
+      <c r="AZ68" s="19">
         <f t="shared" si="124"/>
         <v>16.972403893738136</v>
       </c>
-      <c r="BA68" s="20">
+      <c r="BA68" s="19">
         <f t="shared" si="124"/>
         <v>21.586249774527918</v>
       </c>
-      <c r="BB68" s="20">
+      <c r="BB68" s="19">
         <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
         <v>24.935077210470315</v>
       </c>
-      <c r="BC68" s="20">
+      <c r="BC68" s="19">
         <f t="shared" si="125"/>
         <v>28.69252784225354</v>
       </c>
-      <c r="BD68" s="20">
+      <c r="BD68" s="19">
         <f t="shared" si="125"/>
         <v>32.90321060848143</v>
       </c>
-      <c r="BE68" s="20">
+      <c r="BE68" s="19">
         <f t="shared" si="125"/>
         <v>37.616307381369978</v>
       </c>
-      <c r="BF68" s="20">
+      <c r="BF68" s="19">
         <f t="shared" si="125"/>
         <v>42.886023550381566</v>
       </c>
@@ -7484,7 +7579,9 @@
       <c r="AE69" s="5">
         <v>3218</v>
       </c>
-      <c r="AF69" s="5"/>
+      <c r="AF69" s="5">
+        <v>3223</v>
+      </c>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AT69" s="4">
@@ -7540,934 +7637,952 @@
         <v>3481.75</v>
       </c>
     </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
+    <row r="71" spans="2:109" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="22">
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="21">
         <f>K51/G51-1</f>
         <v>0.31799163179916312</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="21">
         <f t="shared" ref="L71" si="133">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <f t="shared" ref="M71" si="134">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="21">
         <f t="shared" ref="N71" si="135">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
-      <c r="O71" s="22">
+      <c r="O71" s="21">
         <f t="shared" ref="O71" si="136">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P71" s="21">
         <f t="shared" ref="P71:Q71" si="137">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
-      <c r="Q71" s="22">
+      <c r="Q71" s="21">
         <f t="shared" si="137"/>
         <v>0.56846425721126437</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="21">
         <f t="shared" ref="R71:S71" si="138">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
-      <c r="S71" s="22">
+      <c r="S71" s="21">
         <f t="shared" si="138"/>
         <v>0.80537106555010096</v>
       </c>
-      <c r="T71" s="22">
+      <c r="T71" s="21">
         <f>T51/P51-1</f>
         <v>0.41612309750794441</v>
       </c>
-      <c r="U71" s="22">
+      <c r="U71" s="21">
         <f>U51/Q51-1</f>
         <v>0.55949698335392894</v>
       </c>
-      <c r="V71" s="22">
+      <c r="V71" s="21">
         <f>V51/R51-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="W71" s="22">
-        <f t="shared" ref="W71:AE71" si="139">W51/S51-1</f>
+      <c r="W71" s="21">
+        <f t="shared" ref="W71:AF71" si="139">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
-      <c r="X71" s="22">
+      <c r="X71" s="21">
         <f t="shared" si="139"/>
         <v>0.47200897602456604</v>
       </c>
-      <c r="Y71" s="22">
+      <c r="Y71" s="21">
         <f t="shared" si="139"/>
         <v>8.8375128181224838E-2</v>
       </c>
-      <c r="Z71" s="22">
+      <c r="Z71" s="21">
         <f>Z51/V51-1</f>
         <v>1.452839163770947E-2</v>
       </c>
-      <c r="AA71" s="22">
+      <c r="AA71" s="21">
         <f>AA51/W51-1</f>
         <v>-8.6930429936988296E-2</v>
       </c>
-      <c r="AB71" s="22">
+      <c r="AB71" s="21">
         <f t="shared" si="139"/>
         <v>2.2987122397400306E-2</v>
       </c>
-      <c r="AC71" s="22">
+      <c r="AC71" s="21">
         <f t="shared" si="139"/>
         <v>0.11765334961430951</v>
       </c>
-      <c r="AD71" s="22">
+      <c r="AD71" s="21">
         <f t="shared" si="139"/>
         <v>0.13521798932415607</v>
       </c>
-      <c r="AE71" s="22">
+      <c r="AE71" s="21">
         <f t="shared" si="139"/>
         <v>-9.2296136331627587E-2</v>
       </c>
-      <c r="AF71" s="22"/>
-      <c r="AG71" s="22"/>
-      <c r="AH71" s="22"/>
-      <c r="AK71" s="25">
+      <c r="AF71" s="21">
+        <f t="shared" si="139"/>
+        <v>-0.1178039215686274</v>
+      </c>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AK71" s="24">
         <f t="shared" ref="AK71:AM71" si="140">AK51/AJ51-1</f>
         <v>0.58845907814070664</v>
       </c>
-      <c r="AL71" s="25">
+      <c r="AL71" s="24">
         <f t="shared" si="140"/>
         <v>0.26503272306147285</v>
       </c>
-      <c r="AM71" s="25">
+      <c r="AM71" s="24">
         <f t="shared" si="140"/>
         <v>0.73012574069611524</v>
       </c>
-      <c r="AN71" s="25">
+      <c r="AN71" s="24">
         <f>AN51/AM51-1</f>
         <v>0.67978989539054413</v>
       </c>
-      <c r="AO71" s="25">
+      <c r="AO71" s="24">
         <f>AO51/AN51-1</f>
         <v>0.82513159773516764</v>
       </c>
-      <c r="AP71" s="25">
+      <c r="AP71" s="24">
         <f>AP51/AO51-1</f>
         <v>0.14522590184326489</v>
       </c>
-      <c r="AQ71" s="25">
+      <c r="AQ71" s="24">
         <f>+AQ51/AP51-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="AR71" s="25">
+      <c r="AR71" s="24">
         <f>+AR51/AQ51-1</f>
         <v>0.70671613394216126</v>
       </c>
-      <c r="AS71" s="25">
+      <c r="AS71" s="24">
         <f>+AS51/AR51-1</f>
         <v>0.52259442989056737</v>
       </c>
-      <c r="AT71" s="25">
+      <c r="AT71" s="24">
         <f>+AT51/AS51-1</f>
         <v>0.18086993871917945</v>
       </c>
-      <c r="AU71" s="25">
+      <c r="AU71" s="24">
         <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
         <v>5.444432726912618E-2</v>
       </c>
-      <c r="AV71" s="25">
+      <c r="AV71" s="24">
         <f t="shared" si="141"/>
         <v>-2.3848604099481197E-2</v>
       </c>
-      <c r="AW71" s="25">
+      <c r="AW71" s="24">
         <f t="shared" si="141"/>
         <v>0.2988437649339839</v>
       </c>
-      <c r="AX71" s="25">
+      <c r="AX71" s="24">
         <f t="shared" si="141"/>
         <v>0.24522052781689352</v>
       </c>
-      <c r="AY71" s="25">
+      <c r="AY71" s="24">
         <f t="shared" si="141"/>
         <v>0.24429471024781169</v>
       </c>
-      <c r="AZ71" s="25">
+      <c r="AZ71" s="24">
         <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
         <v>0.19142450022795243</v>
       </c>
-      <c r="BA71" s="25">
+      <c r="BA71" s="24">
         <f t="shared" si="142"/>
         <v>0.1388373668361893</v>
       </c>
-      <c r="BB71" s="25">
+      <c r="BB71" s="24">
         <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
         <v>8.173446995315059E-2</v>
       </c>
-      <c r="BC71" s="25">
+      <c r="BC71" s="24">
         <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
         <v>8.1665310206848085E-2</v>
       </c>
-      <c r="BD71" s="25">
+      <c r="BD71" s="24">
         <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
         <v>8.1600781805080569E-2</v>
       </c>
-      <c r="BE71" s="25">
+      <c r="BE71" s="24">
         <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
         <v>8.1540603100230369E-2</v>
       </c>
-      <c r="BF71" s="25">
+      <c r="BF71" s="24">
         <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
         <v>8.1484511217818634E-2</v>
       </c>
     </row>
     <row r="72" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K72" s="17">
-        <f t="shared" ref="K72:AE72" si="148">+K37/G37-1</f>
+      <c r="K72" s="16">
+        <f t="shared" ref="K72:AF72" si="148">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="16">
         <f t="shared" si="148"/>
         <v>-4.9351902344897058E-2</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="16">
         <f t="shared" si="148"/>
         <v>0.43333401930319182</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N72" s="16">
         <f t="shared" si="148"/>
         <v>0.61086578348722065</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O72" s="16">
         <f t="shared" si="148"/>
         <v>1.088229976496113</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P72" s="16">
         <f t="shared" si="148"/>
         <v>1.2200772200772199</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q72" s="16">
         <f t="shared" si="148"/>
         <v>0.73223259152907394</v>
       </c>
-      <c r="R72" s="17">
+      <c r="R72" s="16">
         <f t="shared" si="148"/>
         <v>0.70903250816857732</v>
       </c>
-      <c r="S72" s="17">
+      <c r="S72" s="16">
         <f t="shared" si="148"/>
         <v>0.67774891774891777</v>
       </c>
-      <c r="T72" s="17">
+      <c r="T72" s="16">
         <f t="shared" si="148"/>
         <v>0.26556521739130434</v>
       </c>
-      <c r="U72" s="17">
+      <c r="U72" s="16">
         <f t="shared" si="148"/>
         <v>0.42490675507666809</v>
       </c>
-      <c r="V72" s="17">
+      <c r="V72" s="16">
         <f t="shared" si="148"/>
         <v>0.31327932598833441</v>
       </c>
-      <c r="W72" s="17">
+      <c r="W72" s="16">
         <f t="shared" si="148"/>
         <v>0.36390171844359576</v>
       </c>
-      <c r="X72" s="17">
+      <c r="X72" s="16">
         <f t="shared" si="148"/>
         <v>0.83018904964761764</v>
       </c>
-      <c r="Y72" s="17">
+      <c r="Y72" s="16">
         <f t="shared" si="148"/>
         <v>0.26533170462146982</v>
       </c>
-      <c r="Z72" s="17">
+      <c r="Z72" s="16">
         <f t="shared" si="148"/>
         <v>0.19549297025745282</v>
       </c>
-      <c r="AA72" s="17">
+      <c r="AA72" s="16">
         <f t="shared" si="148"/>
         <v>-8.5285249778303318E-2</v>
       </c>
-      <c r="AB72" s="17">
+      <c r="AB72" s="16">
         <f t="shared" si="148"/>
         <v>-4.7590852533573647E-2</v>
       </c>
-      <c r="AC72" s="17">
+      <c r="AC72" s="16">
         <f t="shared" si="148"/>
         <v>0.10358411158026848</v>
       </c>
-      <c r="AD72" s="17">
+      <c r="AD72" s="16">
         <f t="shared" si="148"/>
         <v>0.10948139036174909</v>
       </c>
-      <c r="AE72" s="17">
+      <c r="AE72" s="16">
         <f t="shared" si="148"/>
-        <v>-1</v>
-      </c>
-      <c r="AF72" s="17"/>
-      <c r="AG72" s="17"/>
-      <c r="AH72" s="17"/>
-      <c r="AQ72" s="26">
+        <v>-0.12959592564825106</v>
+      </c>
+      <c r="AF72" s="16">
+        <f t="shared" si="148"/>
+        <v>-0.13477461730441753</v>
+      </c>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AQ72" s="25">
         <f t="shared" ref="AQ72:BA72" si="149">+AQ37/AP37-1</f>
         <v>0.35729051069477991</v>
       </c>
-      <c r="AR72" s="26">
+      <c r="AR72" s="25">
         <f t="shared" si="149"/>
         <v>0.87559116340959009</v>
       </c>
-      <c r="AS72" s="26">
+      <c r="AS72" s="25">
         <f t="shared" si="149"/>
         <v>0.403761953095785</v>
       </c>
-      <c r="AT72" s="26">
+      <c r="AT72" s="25">
         <f t="shared" si="149"/>
         <v>0.37654954785588313</v>
       </c>
-      <c r="AU72" s="26">
+      <c r="AU72" s="25">
         <f t="shared" si="149"/>
         <v>2.2039764876441881E-2</v>
       </c>
-      <c r="AV72" s="26">
+      <c r="AV72" s="25">
         <f t="shared" si="149"/>
         <v>0.20593650208172676</v>
       </c>
-      <c r="AW72" s="26">
+      <c r="AW72" s="25">
         <f t="shared" si="149"/>
         <v>0.25</v>
       </c>
-      <c r="AX72" s="26">
+      <c r="AX72" s="25">
         <f t="shared" si="149"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AY72" s="26">
+      <c r="AY72" s="25">
         <f t="shared" si="149"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AZ72" s="26">
+      <c r="AZ72" s="25">
         <f t="shared" si="149"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BA72" s="26">
+      <c r="BA72" s="25">
         <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB72" s="26">
+      <c r="BB72" s="25">
         <f t="shared" ref="BB72:BF72" si="150">+BB37/BA37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC72" s="26">
+      <c r="BC72" s="25">
         <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD72" s="26">
+      <c r="BD72" s="25">
         <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BE72" s="26">
+      <c r="BE72" s="25">
         <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BF72" s="26">
+      <c r="BF72" s="25">
         <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="73" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K73" s="17">
-        <f t="shared" ref="K73:AE73" si="151">+K42/G42-1</f>
+      <c r="K73" s="16">
+        <f t="shared" ref="K73:AF73" si="151">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="16">
         <f t="shared" si="151"/>
         <v>-5.4866280672732248E-2</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="16">
         <f t="shared" si="151"/>
         <v>0.50835629972440333</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="16">
         <f t="shared" si="151"/>
         <v>0.71375046476818782</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="16">
         <f t="shared" si="151"/>
         <v>0.75644771700171409</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="16">
         <f t="shared" si="151"/>
         <v>1.5090067094515751</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="16">
         <f t="shared" si="151"/>
         <v>0.63975150996993846</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="16">
         <f t="shared" si="151"/>
         <v>0.7014080119272128</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="16">
         <f t="shared" si="151"/>
         <v>0.69352549102241356</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="16">
         <f t="shared" si="151"/>
         <v>0.25268262434539124</v>
       </c>
-      <c r="U73" s="17">
+      <c r="U73" s="16">
         <f t="shared" si="151"/>
         <v>0.53863587626091669</v>
       </c>
-      <c r="V73" s="17">
+      <c r="V73" s="16">
         <f t="shared" si="151"/>
         <v>0.43768310227569973</v>
       </c>
-      <c r="W73" s="17">
+      <c r="W73" s="16">
         <f t="shared" si="151"/>
         <v>0.44334609226376598</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="16">
         <f t="shared" si="151"/>
         <v>0.85513187408152214</v>
       </c>
-      <c r="Y73" s="17">
+      <c r="Y73" s="16">
         <f t="shared" si="151"/>
         <v>0.17644422460462983</v>
       </c>
-      <c r="Z73" s="17">
+      <c r="Z73" s="16">
         <f t="shared" si="151"/>
         <v>0.12573999149421988</v>
       </c>
-      <c r="AA73" s="17">
+      <c r="AA73" s="16">
         <f t="shared" si="151"/>
         <v>-1.687129090216144E-2</v>
       </c>
-      <c r="AB73" s="17">
+      <c r="AB73" s="16">
         <f t="shared" si="151"/>
         <v>-0.14356681259120285</v>
       </c>
-      <c r="AC73" s="17">
+      <c r="AC73" s="16">
         <f t="shared" si="151"/>
         <v>1.159813978554558E-2</v>
       </c>
-      <c r="AD73" s="17">
+      <c r="AD73" s="16">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="AE73" s="17">
+      <c r="AE73" s="16">
         <f t="shared" si="151"/>
-        <v>-1</v>
-      </c>
-      <c r="AF73" s="17"/>
-      <c r="AG73" s="17"/>
-      <c r="AH73" s="17"/>
-      <c r="AQ73" s="26">
+        <v>-0.16326888508921922</v>
+      </c>
+      <c r="AF73" s="16">
+        <f t="shared" si="151"/>
+        <v>-1.4288113603890817E-3</v>
+      </c>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AQ73" s="25">
         <f t="shared" ref="AQ73:BA73" si="152">+AQ42/AP42-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AR73" s="26">
+      <c r="AR73" s="25">
         <f t="shared" si="152"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AS73" s="26">
+      <c r="AS73" s="25">
         <f t="shared" si="152"/>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AT73" s="26">
+      <c r="AT73" s="25">
         <f t="shared" si="152"/>
         <v>0.34781700789494252</v>
       </c>
-      <c r="AU73" s="26">
+      <c r="AU73" s="25">
         <f t="shared" si="152"/>
         <v>-7.1121997199327103E-2</v>
       </c>
-      <c r="AV73" s="26">
+      <c r="AV73" s="25">
         <f t="shared" si="152"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="AW73" s="26">
+      <c r="AW73" s="25">
         <f t="shared" si="152"/>
         <v>0.25</v>
       </c>
-      <c r="AX73" s="26">
+      <c r="AX73" s="25">
         <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AY73" s="26">
+      <c r="AY73" s="25">
         <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AZ73" s="26">
+      <c r="AZ73" s="25">
         <f t="shared" si="152"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BA73" s="26">
+      <c r="BA73" s="25">
         <f t="shared" si="152"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB73" s="26">
+      <c r="BB73" s="25">
         <f t="shared" ref="BB73:BF73" si="153">+BB42/BA42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC73" s="26">
+      <c r="BC73" s="25">
         <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD73" s="26">
+      <c r="BD73" s="25">
         <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BE73" s="26">
+      <c r="BE73" s="25">
         <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BF73" s="26">
+      <c r="BF73" s="25">
         <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="74" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K74" s="16">
         <f t="shared" ref="K74:O74" si="154">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="16">
         <f t="shared" si="154"/>
         <v>-4.9729102167182626E-2</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="16">
         <f t="shared" si="154"/>
         <v>0.43141075604053003</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N74" s="16">
         <f t="shared" si="154"/>
         <v>0.4053394107113788</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O74" s="16">
         <f t="shared" si="154"/>
         <v>0.67320662170447587</v>
       </c>
-      <c r="P74" s="17">
+      <c r="P74" s="16">
         <f>P45/L45-1</f>
         <v>0.9385053960496843</v>
       </c>
-      <c r="Q74" s="17">
+      <c r="Q74" s="16">
         <f t="shared" ref="Q74" si="155">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
-      <c r="R74" s="17">
+      <c r="R74" s="16">
         <f>R45/N45-1</f>
         <v>0.74041468782578468</v>
       </c>
-      <c r="S74" s="17">
+      <c r="S74" s="16">
         <f t="shared" ref="S74:U74" si="156">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
-      <c r="T74" s="17">
+      <c r="T74" s="16">
         <f t="shared" si="156"/>
         <v>0.43592436974789917</v>
       </c>
-      <c r="U74" s="17">
+      <c r="U74" s="16">
         <f t="shared" si="156"/>
         <v>0.561046256473273</v>
       </c>
-      <c r="V74" s="17">
+      <c r="V74" s="16">
         <f t="shared" ref="V74" si="157">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="W74" s="17">
+      <c r="W74" s="16">
         <f>W45/S45-1</f>
         <v>0.21683640582699493</v>
       </c>
-      <c r="X74" s="17">
+      <c r="X74" s="16">
         <f t="shared" ref="X74" si="158">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
-      <c r="Y74" s="17">
+      <c r="Y74" s="16">
         <f t="shared" ref="Y74" si="159">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
-      <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AE74" si="160">Z45/V45-1</f>
+      <c r="Z74" s="16">
+        <f t="shared" ref="Z74:AF74" si="160">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
-      <c r="AA74" s="17">
+      <c r="AA74" s="16">
         <f t="shared" si="160"/>
         <v>-0.12808560228837795</v>
       </c>
-      <c r="AB74" s="17">
+      <c r="AB74" s="16">
         <f>AB45/X45-1</f>
         <v>-9.2511876193741127E-2</v>
       </c>
-      <c r="AC74" s="17">
+      <c r="AC74" s="16">
         <f t="shared" si="160"/>
         <v>6.7657179716614557E-2</v>
       </c>
-      <c r="AD74" s="17">
+      <c r="AD74" s="16">
         <f t="shared" si="160"/>
         <v>0.16495545987983684</v>
       </c>
-      <c r="AE74" s="17">
+      <c r="AE74" s="16">
         <f t="shared" si="160"/>
         <v>-0.21476306196840822</v>
       </c>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
-      <c r="AH74" s="17"/>
+      <c r="AF74" s="16">
+        <f t="shared" si="160"/>
+        <v>-0.14803022126281706</v>
+      </c>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
     </row>
     <row r="75" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16">
         <f t="shared" ref="G75:K75" si="161">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="16">
         <f t="shared" si="161"/>
         <v>0.17685758513931887</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="16">
         <f t="shared" si="161"/>
         <v>0.21784879189399844</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="16">
         <f t="shared" si="161"/>
         <v>0.21618101904606871</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="16">
         <f t="shared" si="161"/>
         <v>0.2440220723482526</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L75" s="16">
         <f t="shared" ref="L75" si="162">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="16">
         <f t="shared" ref="M75" si="163">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N75" s="16">
         <f t="shared" ref="N75:U75" si="164">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O75" s="16">
         <f t="shared" si="164"/>
         <v>0.21131061438866497</v>
       </c>
-      <c r="P75" s="17">
+      <c r="P75" s="16">
         <f t="shared" si="164"/>
         <v>0.25220588235294117</v>
       </c>
-      <c r="Q75" s="17">
+      <c r="Q75" s="16">
         <f t="shared" si="164"/>
         <v>0.28464846835776353</v>
       </c>
-      <c r="R75" s="17">
+      <c r="R75" s="16">
         <f t="shared" si="164"/>
         <v>0.28858569051580701</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="16">
         <f t="shared" si="164"/>
         <v>0.29650638133298957</v>
       </c>
-      <c r="T75" s="17">
+      <c r="T75" s="16">
         <f t="shared" si="164"/>
         <v>0.25727871250914414</v>
       </c>
-      <c r="U75" s="17">
+      <c r="U75" s="16">
         <f t="shared" si="164"/>
         <v>0.26348046106269329</v>
       </c>
-      <c r="V75" s="17">
+      <c r="V75" s="16">
         <f t="shared" ref="V75:AD75" si="165">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
-      <c r="W75" s="17">
+      <c r="W75" s="16">
         <f>W53/W45</f>
         <v>0.1830702404915775</v>
       </c>
-      <c r="X75" s="17">
+      <c r="X75" s="16">
         <f t="shared" si="165"/>
         <v>0.17522895342573094</v>
       </c>
-      <c r="Y75" s="17">
+      <c r="Y75" s="16">
         <f t="shared" si="165"/>
         <v>0.15746421267893659</v>
       </c>
-      <c r="Z75" s="17">
+      <c r="Z75" s="16">
         <f t="shared" si="165"/>
         <v>0.16616577799321378</v>
       </c>
-      <c r="AA75" s="17">
+      <c r="AA75" s="16">
         <f t="shared" si="165"/>
         <v>0.15571081409477522</v>
       </c>
-      <c r="AB75" s="17">
+      <c r="AB75" s="16">
         <f t="shared" si="165"/>
         <v>0.13858607663248787</v>
       </c>
-      <c r="AC75" s="17">
+      <c r="AC75" s="16">
         <f t="shared" si="165"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="AD75" s="17">
+      <c r="AD75" s="16">
         <f t="shared" si="165"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="AE75" s="17">
-        <f t="shared" ref="AE75" si="166">AE53/AE45</f>
+      <c r="AE75" s="16">
+        <f t="shared" ref="AE75:AF75" si="166">AE53/AE45</f>
         <v>0.1132688588007737</v>
       </c>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="17"/>
-      <c r="AQ75" s="17">
+      <c r="AF75" s="16">
+        <f t="shared" si="166"/>
+        <v>0.14062203078482297</v>
+      </c>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="16"/>
+      <c r="AQ75" s="16">
         <f t="shared" ref="AQ75:AU75" si="167">AQ53/AQ45</f>
         <v>0</v>
       </c>
-      <c r="AR75" s="17">
+      <c r="AR75" s="16">
         <f t="shared" si="167"/>
         <v>0.38841926345609062</v>
       </c>
-      <c r="AS75" s="17">
+      <c r="AS75" s="16">
         <f t="shared" si="167"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AT75" s="17">
+      <c r="AT75" s="16">
         <f t="shared" si="167"/>
         <v>0.17052821969455731</v>
       </c>
-      <c r="AU75" s="17">
+      <c r="AU75" s="16">
         <f t="shared" si="167"/>
         <v>0.14851006001488046</v>
       </c>
-      <c r="AV75" s="17"/>
-      <c r="AW75" s="17"/>
-      <c r="AX75" s="17"/>
+      <c r="AV75" s="16"/>
+      <c r="AW75" s="16"/>
+      <c r="AX75" s="16"/>
     </row>
     <row r="76" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17">
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16">
         <f t="shared" ref="G76:K76" si="168">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16">
         <f t="shared" si="168"/>
         <v>0.14503937007874015</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="16">
         <f t="shared" si="168"/>
         <v>0.18895763921941933</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="16">
         <f t="shared" si="168"/>
         <v>0.18838028169014084</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="16">
         <f t="shared" si="168"/>
         <v>0.20618212197159566</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L76" s="16">
         <f t="shared" ref="L76" si="169">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="16">
         <f t="shared" ref="M76" si="170">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N76" s="16">
         <f>+N59/N51</f>
         <v>0.19229337304542071</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O76" s="16">
         <f t="shared" ref="O76:AD76" si="171">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P76" s="16">
         <f t="shared" si="171"/>
         <v>0.24117745442381669</v>
       </c>
-      <c r="Q76" s="17">
+      <c r="Q76" s="16">
         <f t="shared" si="171"/>
         <v>0.26604637639020134</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R76" s="16">
         <f t="shared" si="171"/>
         <v>0.27354816863254133</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="16">
         <f t="shared" si="171"/>
         <v>0.29110684580934099</v>
       </c>
-      <c r="T76" s="17">
+      <c r="T76" s="16">
         <f t="shared" si="171"/>
         <v>0.24997047360340144</v>
       </c>
-      <c r="U76" s="17">
+      <c r="U76" s="16">
         <f t="shared" si="171"/>
         <v>0.25086231005873033</v>
       </c>
-      <c r="V76" s="17">
+      <c r="V76" s="16">
         <f t="shared" si="171"/>
         <v>0.25257794296679104</v>
       </c>
-      <c r="W76" s="17">
+      <c r="W76" s="16">
         <f t="shared" si="171"/>
         <v>0.19336448197522396</v>
       </c>
-      <c r="X76" s="17">
+      <c r="X76" s="16">
         <f t="shared" si="171"/>
         <v>0.18185100493440848</v>
       </c>
-      <c r="Y76" s="17">
+      <c r="Y76" s="16">
         <f t="shared" si="171"/>
         <v>0.17892933618843684</v>
       </c>
-      <c r="Z76" s="17">
+      <c r="Z76" s="16">
         <f t="shared" si="171"/>
         <v>0.17634203520483172</v>
       </c>
-      <c r="AA76" s="17">
+      <c r="AA76" s="16">
         <f t="shared" si="171"/>
         <v>0.1735129806112389</v>
       </c>
-      <c r="AB76" s="41">
+      <c r="AB76" s="40">
         <f t="shared" si="171"/>
         <v>0.17952941176470588</v>
       </c>
-      <c r="AC76" s="17">
+      <c r="AC76" s="16">
         <f t="shared" si="171"/>
         <v>0.15717279857679209</v>
       </c>
-      <c r="AD76" s="17">
+      <c r="AD76" s="16">
         <f t="shared" si="171"/>
         <v>0.15511900037130005</v>
       </c>
-      <c r="AE76" s="17">
-        <f t="shared" ref="AE76" si="172">+AE59/AE51</f>
+      <c r="AE76" s="16">
+        <f t="shared" ref="AE76:AF76" si="172">+AE59/AE51</f>
         <v>0.16307214895267649</v>
       </c>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
-      <c r="AH76" s="17"/>
-      <c r="AQ76" s="17">
+      <c r="AF76" s="16">
+        <f t="shared" si="172"/>
+        <v>0.17238620199146515</v>
+      </c>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
+      <c r="AQ76" s="16">
         <f t="shared" ref="AQ76:BF76" si="173">+AQ59/AQ51</f>
         <v>0</v>
       </c>
-      <c r="AR76" s="17">
+      <c r="AR76" s="16">
         <f t="shared" si="173"/>
         <v>0</v>
       </c>
-      <c r="AS76" s="17">
+      <c r="AS76" s="16">
         <f t="shared" si="173"/>
         <v>0.25</v>
       </c>
-      <c r="AT76" s="17">
+      <c r="AT76" s="16">
         <f t="shared" si="173"/>
         <v>0.18248891736331416</v>
       </c>
-      <c r="AU76" s="17">
+      <c r="AU76" s="16">
         <f t="shared" si="173"/>
         <v>0.16471225777031828</v>
       </c>
-      <c r="AV76" s="17">
+      <c r="AV76" s="16">
         <f t="shared" si="173"/>
         <v>0.22985752587485617</v>
       </c>
-      <c r="AW76" s="17">
+      <c r="AW76" s="16">
         <f t="shared" si="173"/>
         <v>0.25506572778682646</v>
       </c>
-      <c r="AX76" s="17">
+      <c r="AX76" s="16">
         <f t="shared" si="173"/>
         <v>0.25239469462195546</v>
       </c>
-      <c r="AY76" s="17">
+      <c r="AY76" s="16">
         <f t="shared" si="173"/>
         <v>0.2688449395488649</v>
       </c>
-      <c r="AZ76" s="17">
+      <c r="AZ76" s="16">
         <f t="shared" si="173"/>
         <v>0.28443112518959862</v>
       </c>
-      <c r="BA76" s="17">
+      <c r="BA76" s="16">
         <f t="shared" si="173"/>
         <v>0.2993291081869508</v>
       </c>
-      <c r="BB76" s="17">
+      <c r="BB76" s="16">
         <f t="shared" si="173"/>
         <v>0.29953516962407462</v>
       </c>
-      <c r="BC76" s="17">
+      <c r="BC76" s="16">
         <f t="shared" si="173"/>
         <v>0.29968042854680105</v>
       </c>
-      <c r="BD76" s="17">
+      <c r="BD76" s="16">
         <f t="shared" si="173"/>
         <v>0.2997689777818105</v>
       </c>
-      <c r="BE76" s="17">
+      <c r="BE76" s="16">
         <f t="shared" si="173"/>
         <v>0.29980465126954314</v>
       </c>
-      <c r="BF76" s="17">
+      <c r="BF76" s="16">
         <f t="shared" si="173"/>
         <v>0.29979104278173424</v>
       </c>
     </row>
     <row r="77" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B77" s="15"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="17"/>
-      <c r="AA77" s="17"/>
-      <c r="AB77" s="17"/>
-      <c r="AC77" s="17"/>
-      <c r="AD77" s="17"/>
-      <c r="AE77" s="17"/>
-      <c r="AF77" s="17"/>
-      <c r="AG77" s="17"/>
-      <c r="AH77" s="17"/>
+      <c r="B77" s="14"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
     </row>
     <row r="78" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="BG78" s="28" t="s">
+      <c r="BG78" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="BH78" s="26">
+      <c r="BH78" s="25">
         <v>-0.01</v>
       </c>
     </row>
@@ -8561,10 +8676,10 @@
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-      <c r="BG79" s="28" t="s">
+      <c r="BG79" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="BH79" s="30">
+      <c r="BH79" s="29">
         <v>0.08</v>
       </c>
     </row>
@@ -8633,12 +8748,12 @@
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-      <c r="BG80" s="28" t="s">
+      <c r="BG80" s="27" t="s">
         <v>111</v>
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1187377.0517001939</v>
+        <v>1187472.0517001939</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8706,10 +8821,10 @@
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
-      <c r="BG81" s="28" t="s">
+      <c r="BG81" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="BH81" s="26">
+      <c r="BH81" s="25">
         <v>0.1</v>
       </c>
     </row>
@@ -8778,12 +8893,12 @@
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
-      <c r="BG82" s="28" t="s">
+      <c r="BG82" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="BH82" s="20">
+      <c r="BH82" s="19">
         <f>BH80/Main!K3</f>
-        <v>368.64116551635846</v>
+        <v>368.15714418849501</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8944,7 +9059,7 @@
       <c r="AH85" s="5"/>
     </row>
     <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C86" s="5"/>
@@ -9462,7 +9577,7 @@
       <c r="AH93" s="5"/>
     </row>
     <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>114</v>
       </c>
       <c r="C94" s="5"/>
@@ -9613,7 +9728,7 @@
         <f t="shared" ref="Y95" si="190">X95+Y67</f>
         <v>26958</v>
       </c>
-      <c r="Z95" s="36">
+      <c r="Z95" s="35">
         <f>16398+12696</f>
         <v>29094</v>
       </c>
@@ -10474,7 +10589,7 @@
       <c r="S116" s="5"/>
     </row>
     <row r="117" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="32" t="s">
         <v>154</v>
       </c>
       <c r="S117" s="5"/>
@@ -10493,7 +10608,7 @@
       </c>
     </row>
     <row r="118" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="32" t="s">
         <v>160</v>
       </c>
       <c r="S118" s="5"/>
@@ -10556,7 +10671,7 @@
       </c>
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="32" t="s">
         <v>161</v>
       </c>
       <c r="S119" s="5"/>
@@ -10571,7 +10686,7 @@
       </c>
     </row>
     <row r="120" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B120" s="33"/>
+      <c r="B120" s="32"/>
       <c r="S120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
@@ -10580,7 +10695,7 @@
       <c r="AT120" s="4"/>
     </row>
     <row r="121" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="32" t="s">
         <v>162</v>
       </c>
       <c r="S121" s="5"/>
@@ -10642,58 +10757,58 @@
       </c>
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="32" t="s">
         <v>163</v>
       </c>
       <c r="S122" s="5"/>
-      <c r="AT122" s="26">
+      <c r="AT122" s="25">
         <f>+AT117/AS117-1</f>
         <v>0.21386886371438374</v>
       </c>
     </row>
     <row r="123" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="32" t="s">
         <v>164</v>
       </c>
       <c r="S123" s="5"/>
-      <c r="AT123" s="26">
+      <c r="AT123" s="25">
         <f>+AT121*1000/AT37</f>
         <v>8.3007064654555152E-2</v>
       </c>
-      <c r="AU123" s="26">
+      <c r="AU123" s="25">
         <v>0.12</v>
       </c>
-      <c r="AV123" s="26">
+      <c r="AV123" s="25">
         <v>0.16</v>
       </c>
-      <c r="AW123" s="26">
+      <c r="AW123" s="25">
         <v>0.2</v>
       </c>
-      <c r="AX123" s="26">
+      <c r="AX123" s="25">
         <v>0.24</v>
       </c>
-      <c r="AY123" s="26">
+      <c r="AY123" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AZ123" s="26">
+      <c r="AZ123" s="25">
         <v>0.32</v>
       </c>
-      <c r="BA123" s="26">
+      <c r="BA123" s="25">
         <v>0.36</v>
       </c>
-      <c r="BB123" s="26">
+      <c r="BB123" s="25">
         <v>0.37</v>
       </c>
-      <c r="BC123" s="26">
+      <c r="BC123" s="25">
         <v>0.38</v>
       </c>
-      <c r="BD123" s="26">
+      <c r="BD123" s="25">
         <v>0.39</v>
       </c>
-      <c r="BE123" s="26">
+      <c r="BE123" s="25">
         <v>0.4</v>
       </c>
-      <c r="BF123" s="26">
+      <c r="BF123" s="25">
         <v>0.41</v>
       </c>
     </row>
@@ -10718,120 +10833,120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="27"/>
+    <col min="3" max="3" width="11.7109375" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>550000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>750000</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>950000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>350000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>375000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>250000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>300000</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>125000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>300000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>300000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>300000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10853,12 +10968,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4452826-844E-4CD9-B3F8-9CBD314CD29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869E8D3-D242-40A5-A03B-A39822244ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1383,11 +1383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5035,27 +5035,27 @@
         <v>3428</v>
       </c>
       <c r="AA53" s="5">
-        <f>AA45-AA52</f>
+        <f t="shared" ref="AA53:AF53" si="62">AA45-AA52</f>
         <v>2563</v>
       </c>
       <c r="AB53" s="5">
-        <f>AB45-AB52</f>
+        <f t="shared" si="62"/>
         <v>2568</v>
       </c>
       <c r="AC53" s="5">
-        <f>AC45-AC52</f>
+        <f t="shared" si="62"/>
         <v>2975.8808570241199</v>
       </c>
       <c r="AD53" s="5">
-        <f>AD45-AD52</f>
+        <f t="shared" si="62"/>
         <v>3604.9546705981556</v>
       </c>
       <c r="AE53" s="5">
-        <f>AE45-AE52</f>
+        <f t="shared" si="62"/>
         <v>1464</v>
       </c>
       <c r="AF53" s="5">
-        <f>AF45-AF52</f>
+        <f t="shared" si="62"/>
         <v>2220</v>
       </c>
       <c r="AG53" s="5"/>
@@ -5282,35 +5282,35 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <f t="shared" ref="G56:K56" si="62">G48-G55-G52</f>
+        <f t="shared" ref="G56:K56" si="63">G48-G55-G52</f>
         <v>751</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1016</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1222</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1434</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1311</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" ref="L56" si="63">L48-L55-L52</f>
+        <f t="shared" ref="L56" si="64">L48-L55-L52</f>
         <v>1317</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" ref="M56:N56" si="64">M48-M55-M52</f>
+        <f t="shared" ref="M56:N56" si="65">M48-M55-M52</f>
         <v>2105</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2244</v>
       </c>
       <c r="O56" s="5">
@@ -5318,19 +5318,19 @@
         <v>2385</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" ref="P56:S56" si="65">P48-P55-P52</f>
+        <f t="shared" ref="P56:S56" si="66">P48-P55-P52</f>
         <v>2899</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3673</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4882</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5539</v>
       </c>
       <c r="T56" s="5">
@@ -5342,7 +5342,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AF56" si="66">V48-V55-V52</f>
+        <f t="shared" ref="V56:AF56" si="67">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5350,19 +5350,19 @@
         <v>4208</v>
       </c>
       <c r="X56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4089</v>
       </c>
       <c r="Y56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3668</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4065</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3212</v>
       </c>
       <c r="AB56" s="5">
@@ -5370,19 +5370,19 @@
         <v>3671</v>
       </c>
       <c r="AC56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3774.3808570241199</v>
       </c>
       <c r="AD56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4287.9546705981556</v>
       </c>
       <c r="AE56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2267</v>
       </c>
       <c r="AF56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2866</v>
       </c>
       <c r="AG56" s="5"/>
@@ -5404,43 +5404,43 @@
         <v>21243.439358207805</v>
       </c>
       <c r="AW56" s="4">
-        <f t="shared" ref="AW56:BF56" si="67">AW51-AW52</f>
+        <f t="shared" ref="AW56:BF56" si="68">AW51-AW52</f>
         <v>29742.042711909977</v>
       </c>
       <c r="AX56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>35442.219032577384</v>
       </c>
       <c r="AY56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>46105.136828120361</v>
       </c>
       <c r="AZ56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57319.084803531819</v>
       </c>
       <c r="BA56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>67996.995424077526</v>
       </c>
       <c r="BB56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>73554.693803471309</v>
       </c>
       <c r="BC56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>79561.560690101527</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>86053.846244046174</v>
       </c>
       <c r="BE56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>93070.728765880165</v>
       </c>
       <c r="BF56" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>100654.55160805408</v>
       </c>
     </row>
@@ -5659,113 +5659,113 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <f t="shared" ref="G59:K59" si="68">G56+G49+G50-G57-G58</f>
+        <f t="shared" ref="G59:K59" si="69">G56+G49+G50-G57-G58</f>
         <v>566</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>921</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1191</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1391</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1234</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" ref="L59" si="69">L56+L49+L50-L57-L58</f>
+        <f t="shared" ref="L59" si="70">L56+L49+L50-L57-L58</f>
         <v>1267</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" ref="M59:T59" si="70">M56+M49+M50-M57-M58</f>
+        <f t="shared" ref="M59:T59" si="71">M56+M49+M50-M57-M58</f>
         <v>2063</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2066</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2215</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2884</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3660</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4847</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5460</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AF59" si="71">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AF59" si="72">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>6265.5999999999985</v>
       </c>
       <c r="W59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4511</v>
       </c>
       <c r="X59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4533</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4178</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4438</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3696</v>
       </c>
       <c r="AB59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4578</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4101.7708570241202</v>
       </c>
       <c r="AD59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4431.7546705981558</v>
       </c>
       <c r="AE59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3153</v>
       </c>
       <c r="AF59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3878</v>
       </c>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
-        <f t="shared" ref="AS59" si="72">+AS51*0.25</f>
+        <f t="shared" ref="AS59" si="73">+AS51*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AT59" s="4">
@@ -5781,43 +5781,43 @@
         <v>22895.691605247805</v>
       </c>
       <c r="AW59" s="4">
-        <f t="shared" ref="AW59:BF59" si="73">+AW56+AW44</f>
+        <f t="shared" ref="AW59:BF59" si="74">+AW56+AW44</f>
         <v>32999.249347909979</v>
       </c>
       <c r="AX59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>40661.036588417388</v>
       </c>
       <c r="AY59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>53891.881406296365</v>
       </c>
       <c r="AZ59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>67930.549106277424</v>
       </c>
       <c r="BA59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>81413.919998725207</v>
       </c>
       <c r="BB59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>88128.870740278595</v>
       </c>
       <c r="BC59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>95372.170413847765</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>103185.09409108324</v>
       </c>
       <c r="BE59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>111612.14952422777</v>
       </c>
       <c r="BF59" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>120701.3319492257</v>
       </c>
     </row>
@@ -5896,11 +5896,11 @@
         <v>1074</v>
       </c>
       <c r="AC60" s="5">
-        <f t="shared" ref="AC60:AD61" si="74">+Y60*1.1</f>
+        <f t="shared" ref="AC60:AD61" si="75">+Y60*1.1</f>
         <v>1277.1000000000001</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1203.4000000000001</v>
       </c>
       <c r="AE60" s="5">
@@ -5920,7 +5920,7 @@
         <v>3969</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" ref="AU60:AU61" si="75">SUM(AA60:AD60)</f>
+        <f t="shared" ref="AU60:AU61" si="76">SUM(AA60:AD60)</f>
         <v>4705.5</v>
       </c>
       <c r="AV60" s="4">
@@ -5928,43 +5928,43 @@
         <v>4893.72</v>
       </c>
       <c r="AW60" s="4">
-        <f t="shared" ref="AW60:BA60" si="76">AV60*1.04</f>
+        <f t="shared" ref="AW60:BA60" si="77">AV60*1.04</f>
         <v>5089.4688000000006</v>
       </c>
       <c r="AX60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5293.0475520000009</v>
       </c>
       <c r="AY60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5504.7694540800012</v>
       </c>
       <c r="AZ60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5724.9602322432011</v>
       </c>
       <c r="BA60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5953.9586415329295</v>
       </c>
       <c r="BB60" s="4">
-        <f t="shared" ref="BB60:BF60" si="77">BA60*1.04</f>
+        <f t="shared" ref="BB60:BF60" si="78">BA60*1.04</f>
         <v>6192.1169871942466</v>
       </c>
       <c r="BC60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6439.8016666820167</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6697.3937333492977</v>
       </c>
       <c r="BE60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6965.2894826832699</v>
       </c>
       <c r="BF60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7243.9010619906012</v>
       </c>
     </row>
@@ -6044,11 +6044,11 @@
         <v>1277</v>
       </c>
       <c r="AC61" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1378.3000000000002</v>
       </c>
       <c r="AD61" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1408</v>
       </c>
       <c r="AE61" s="5">
@@ -6069,7 +6069,7 @@
         <v>4800</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5437.3</v>
       </c>
       <c r="AV61" s="4">
@@ -6077,43 +6077,43 @@
         <v>5654.7920000000004</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" ref="AW61:BA61" si="78">AV61*1.04</f>
+        <f t="shared" ref="AW61:BA61" si="79">AV61*1.04</f>
         <v>5880.9836800000003</v>
       </c>
       <c r="AX61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6116.2230272000006</v>
       </c>
       <c r="AY61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6360.8719482880006</v>
       </c>
       <c r="AZ61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6615.3068262195211</v>
       </c>
       <c r="BA61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6879.9190992683025</v>
       </c>
       <c r="BB61" s="4">
-        <f t="shared" ref="BB61:BF61" si="79">BA61*1.04</f>
+        <f t="shared" ref="BB61:BF61" si="80">BA61*1.04</f>
         <v>7155.1158632390352</v>
       </c>
       <c r="BC61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7441.3204977685973</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7738.9733176793416</v>
       </c>
       <c r="BE61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8048.5322503865154</v>
       </c>
       <c r="BF61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8370.4735404019757</v>
       </c>
     </row>
@@ -6126,51 +6126,51 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="80">G60+G61</f>
+        <f t="shared" ref="G62" si="81">G60+G61</f>
         <v>1044</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62:I62" si="81">H60+H61</f>
+        <f t="shared" ref="H62:I62" si="82">H60+H61</f>
         <v>971</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>930</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ref="J62:L62" si="82">J60+J61</f>
+        <f t="shared" ref="J62:L62" si="83">J60+J61</f>
         <v>1044</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>951</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>940</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" ref="M62:N62" si="83">M60+M61</f>
+        <f t="shared" ref="M62:N62" si="84">M60+M61</f>
         <v>1254</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1491</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:R62" si="84">O60+O61</f>
+        <f t="shared" ref="O62:R62" si="85">O60+O61</f>
         <v>1722</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1549</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1605</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2234</v>
       </c>
       <c r="S62" s="5">
@@ -6186,7 +6186,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AF62" si="85">V60+V61</f>
+        <f t="shared" ref="V62:AF62" si="86">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6194,45 +6194,45 @@
         <v>1847</v>
       </c>
       <c r="X62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2134</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2414</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2374</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2525</v>
       </c>
       <c r="AB62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2351</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2655.4000000000005</v>
       </c>
       <c r="AD62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2611.4</v>
       </c>
       <c r="AE62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2754</v>
       </c>
       <c r="AF62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2955</v>
       </c>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
-        <f t="shared" ref="AS62" si="86">+AS60+AS61</f>
+        <f t="shared" ref="AS62" si="87">+AS60+AS61</f>
         <v>7781.8</v>
       </c>
       <c r="AT62" s="4">
@@ -6240,7 +6240,7 @@
         <v>8769</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" ref="AU62:AY62" si="87">+AU60+AU61</f>
+        <f t="shared" ref="AU62:AY62" si="88">+AU60+AU61</f>
         <v>10142.799999999999</v>
       </c>
       <c r="AV62" s="4">
@@ -6248,43 +6248,43 @@
         <v>10548.512000000001</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>10970.45248</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>11409.270579200002</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>11865.641402368001</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" ref="AZ62" si="88">+AZ60+AZ61</f>
+        <f t="shared" ref="AZ62" si="89">+AZ60+AZ61</f>
         <v>12340.267058462723</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" ref="BA62:BF62" si="89">+BA60+BA61</f>
+        <f t="shared" ref="BA62:BF62" si="90">+BA60+BA61</f>
         <v>12833.877740801232</v>
       </c>
       <c r="BB62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>13347.232850433282</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>13881.122164450615</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>14436.367051028639</v>
       </c>
       <c r="BE62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15013.821733069784</v>
       </c>
       <c r="BF62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15614.374602392578</v>
       </c>
     </row>
@@ -6297,51 +6297,51 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="90">G59-G62</f>
+        <f t="shared" ref="G63" si="91">G59-G62</f>
         <v>-478</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ref="H63:I63" si="91">H59-H62</f>
+        <f t="shared" ref="H63:I63" si="92">H59-H62</f>
         <v>-50</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>261</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:L63" si="92">J59-J62</f>
+        <f t="shared" ref="J63:L63" si="93">J59-J62</f>
         <v>347</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>283</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>327</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="93">M59-M62</f>
+        <f t="shared" ref="M63:N63" si="94">M59-M62</f>
         <v>809</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>575</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63:R63" si="94">O59-O62</f>
+        <f t="shared" ref="O63:R63" si="95">O59-O62</f>
         <v>493</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1335</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2055</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2613</v>
       </c>
       <c r="S63" s="5">
@@ -6357,7 +6357,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AD63" si="95">V59-V62</f>
+        <f t="shared" ref="V63:AD63" si="96">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6365,31 +6365,31 @@
         <v>2664</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2399</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1764</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2064</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1171</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2227</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1446.3708570241197</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1820.3546705981557</v>
       </c>
       <c r="AE63" s="5">
@@ -6403,15 +6403,15 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
-        <f t="shared" ref="AS63:AT63" si="96">AS59-AS62</f>
+        <f t="shared" ref="AS63:AT63" si="97">AS59-AS62</f>
         <v>12705.850000000002</v>
       </c>
       <c r="AT63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>8891</v>
       </c>
       <c r="AU63" s="5">
-        <f t="shared" ref="AU63:BA63" si="97">AU59-AU62</f>
+        <f t="shared" ref="AU63:BA63" si="98">AU59-AU62</f>
         <v>6664.725527622275</v>
       </c>
       <c r="AV63" s="5">
@@ -6419,43 +6419,43 @@
         <v>12347.179605247804</v>
       </c>
       <c r="AW63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>22028.796867909979</v>
       </c>
       <c r="AX63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>29251.766009217386</v>
       </c>
       <c r="AY63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>42026.240003928368</v>
       </c>
       <c r="AZ63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>55590.282047814704</v>
       </c>
       <c r="BA63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>68580.042257923982</v>
       </c>
       <c r="BB63" s="5">
-        <f t="shared" ref="BB63:BF63" si="98">BB59-BB62</f>
+        <f t="shared" ref="BB63:BF63" si="99">BB59-BB62</f>
         <v>74781.637889845311</v>
       </c>
       <c r="BC63" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>81491.04824939715</v>
       </c>
       <c r="BD63" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>88748.727040054597</v>
       </c>
       <c r="BE63" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>96598.327791157993</v>
       </c>
       <c r="BF63" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>105086.95734683312</v>
       </c>
     </row>
@@ -6572,51 +6572,51 @@
         <v>1082</v>
       </c>
       <c r="AU64" s="4">
-        <f t="shared" ref="AU64" si="99">SUM(AA64:AD64)</f>
+        <f t="shared" ref="AU64" si="100">SUM(AA64:AD64)</f>
         <v>664</v>
       </c>
       <c r="AV64" s="4">
-        <f t="shared" ref="AV64:BF64" si="100">AU94*$BH$81</f>
+        <f t="shared" ref="AV64:BF64" si="101">AU94*$BH$81</f>
         <v>2970.6380422097823</v>
       </c>
       <c r="AW64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>4272.6525422436771</v>
       </c>
       <c r="AX64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>6508.2757421067381</v>
       </c>
       <c r="AY64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>9547.8792909692893</v>
       </c>
       <c r="AZ64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>13931.679431035591</v>
       </c>
       <c r="BA64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>19841.046156737866</v>
       </c>
       <c r="BB64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>27356.838671984122</v>
       </c>
       <c r="BC64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>36038.609179739629</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>46028.630061216252</v>
       </c>
       <c r="BE64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>57484.705414824275</v>
       </c>
       <c r="BF64" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>70581.763237332765</v>
       </c>
     </row>
@@ -6629,51 +6629,51 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <f t="shared" ref="G65:N65" si="101">G63+G64</f>
+        <f t="shared" ref="G65:N65" si="102">G63+G64</f>
         <v>-601</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-253</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>176</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>160</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>70</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>150</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>555</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>379</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65:R65" si="102">O63+O64</f>
+        <f t="shared" ref="O65:R65" si="103">O63+O64</f>
         <v>432</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1316</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1933</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2635</v>
       </c>
       <c r="S65" s="5">
@@ -6689,47 +6689,47 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AF65" si="103">V63+V64</f>
+        <f t="shared" ref="V65:AF65" si="104">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2800</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2937</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2045</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2191</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1553</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2509</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1446.3708570241197</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1820.3546705981557</v>
       </c>
       <c r="AE65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>589</v>
       </c>
       <c r="AF65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1549</v>
       </c>
       <c r="AG65" s="5"/>
@@ -6739,51 +6739,51 @@
         <v>9973</v>
       </c>
       <c r="AU65" s="4">
-        <f t="shared" ref="AU65:BF65" si="104">+AU63+AU64</f>
+        <f t="shared" ref="AU65:BF65" si="105">+AU63+AU64</f>
         <v>7328.725527622275</v>
       </c>
       <c r="AV65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15317.817647457587</v>
       </c>
       <c r="AW65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>26301.449410153655</v>
       </c>
       <c r="AX65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>35760.041751324126</v>
       </c>
       <c r="AY65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>51574.119294897653</v>
       </c>
       <c r="AZ65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>69521.961478850295</v>
       </c>
       <c r="BA65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>88421.088414661848</v>
       </c>
       <c r="BB65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>102138.47656182943</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>117529.65742913677</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>134777.35710127084</v>
       </c>
       <c r="BE65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>154083.03320598227</v>
       </c>
       <c r="BF65" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>175668.72058416589</v>
       </c>
     </row>
@@ -6903,51 +6903,51 @@
         <v>728</v>
       </c>
       <c r="AU66" s="4">
-        <f t="shared" ref="AU66" si="105">SUM(AA66:AD66)</f>
+        <f t="shared" ref="AU66" si="106">SUM(AA66:AD66)</f>
         <v>1486.345105524455</v>
       </c>
       <c r="AV66" s="4">
-        <f t="shared" ref="AV66:BA66" si="106">+AV65*0.15</f>
+        <f t="shared" ref="AV66:BA66" si="107">+AV65*0.15</f>
         <v>2297.672647118638</v>
       </c>
       <c r="AW66" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>3945.2174115230482</v>
       </c>
       <c r="AX66" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>5364.0062626986191</v>
       </c>
       <c r="AY66" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7736.1178942346478</v>
       </c>
       <c r="AZ66" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>10428.294221827544</v>
       </c>
       <c r="BA66" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>13263.163262199278</v>
       </c>
       <c r="BB66" s="4">
-        <f t="shared" ref="BB66:BF66" si="107">+BB65*0.15</f>
+        <f t="shared" ref="BB66:BF66" si="108">+BB65*0.15</f>
         <v>15320.771484274414</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>17629.448614370514</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>20216.603565190624</v>
       </c>
       <c r="BE66" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>23112.454980897339</v>
       </c>
       <c r="BF66" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>26350.308087624882</v>
       </c>
     </row>
@@ -6960,51 +6960,51 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:N67" si="108">G65-G66</f>
+        <f t="shared" ref="G67:N67" si="109">G65-G66</f>
         <v>-658</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-291</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>143</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>91</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>16</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>104</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>300</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>270</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:R67" si="109">O65-O66</f>
+        <f t="shared" ref="O67:R67" si="110">O65-O66</f>
         <v>337</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1165</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1669</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2321</v>
       </c>
       <c r="S67" s="5">
@@ -7020,47 +7020,47 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AF67" si="110">V65-V66</f>
+        <f t="shared" ref="V67:AF67" si="111">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2513</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2703</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1853</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2176</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1129</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2100</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1157.0966856192958</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>409</v>
       </c>
       <c r="AF67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1172</v>
       </c>
       <c r="AG67" s="5"/>
@@ -7070,255 +7070,255 @@
         <v>9245</v>
       </c>
       <c r="AU67" s="4">
-        <f t="shared" ref="AU67" si="111">+AU65-AU66</f>
+        <f t="shared" ref="AU67" si="112">+AU65-AU66</f>
         <v>5842.38042209782</v>
       </c>
       <c r="AV67" s="4">
-        <f t="shared" ref="AV67:BA67" si="112">+AV65-AV66</f>
+        <f t="shared" ref="AV67:BA67" si="113">+AV65-AV66</f>
         <v>13020.145000338949</v>
       </c>
       <c r="AW67" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>22356.231998630607</v>
       </c>
       <c r="AX67" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>30396.035488625508</v>
       </c>
       <c r="AY67" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>43838.001400663008</v>
       </c>
       <c r="AZ67" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>59093.667257022753</v>
       </c>
       <c r="BA67" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>75157.925152462572</v>
       </c>
       <c r="BB67" s="4">
-        <f t="shared" ref="BB67:BF67" si="113">+BB65-BB66</f>
+        <f t="shared" ref="BB67:BF67" si="114">+BB65-BB66</f>
         <v>86817.705077555016</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>99900.208814766258</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>114560.75353608021</v>
       </c>
       <c r="BE67" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>130970.57822508493</v>
       </c>
       <c r="BF67" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>149318.41249654102</v>
       </c>
       <c r="BG67" s="4">
-        <f t="shared" ref="BG67:CL67" si="114">BF67*(1+$BH$78)</f>
+        <f t="shared" ref="BG67:CL67" si="115">BF67*(1+$BH$78)</f>
         <v>147825.22837157559</v>
       </c>
       <c r="BH67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>146346.97608785983</v>
       </c>
       <c r="BI67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>144883.50632698124</v>
       </c>
       <c r="BJ67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>143434.67126371141</v>
       </c>
       <c r="BK67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>142000.3245510743</v>
       </c>
       <c r="BL67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>140580.32130556356</v>
       </c>
       <c r="BM67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>139174.51809250793</v>
       </c>
       <c r="BN67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>137782.77291158284</v>
       </c>
       <c r="BO67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>136404.94518246703</v>
       </c>
       <c r="BP67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>135040.89573064234</v>
       </c>
       <c r="BQ67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>133690.48677333593</v>
       </c>
       <c r="BR67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>132353.58190560256</v>
       </c>
       <c r="BS67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>131030.04608654654</v>
       </c>
       <c r="BT67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>129719.74562568107</v>
       </c>
       <c r="BU67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>128422.54816942426</v>
       </c>
       <c r="BV67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>127138.32268773002</v>
       </c>
       <c r="BW67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>125866.93946085272</v>
       </c>
       <c r="BX67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>124608.27006624419</v>
       </c>
       <c r="BY67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>123362.18736558175</v>
       </c>
       <c r="BZ67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>122128.56549192593</v>
       </c>
       <c r="CA67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>120907.27983700666</v>
       </c>
       <c r="CB67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>119698.2070386366</v>
       </c>
       <c r="CC67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>118501.22496825023</v>
       </c>
       <c r="CD67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>117316.21271856772</v>
       </c>
       <c r="CE67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>116143.05059138205</v>
       </c>
       <c r="CF67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>114981.62008546822</v>
       </c>
       <c r="CG67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>113831.80388461355</v>
       </c>
       <c r="CH67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>112693.48584576741</v>
       </c>
       <c r="CI67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>111566.55098730973</v>
       </c>
       <c r="CJ67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>110450.88547743663</v>
       </c>
       <c r="CK67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>109346.37662266227</v>
       </c>
       <c r="CL67" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>108252.91285643565</v>
       </c>
       <c r="CM67" s="4">
-        <f t="shared" ref="CM67:DE67" si="115">CL67*(1+$BH$78)</f>
+        <f t="shared" ref="CM67:DE67" si="116">CL67*(1+$BH$78)</f>
         <v>107170.38372787129</v>
       </c>
       <c r="CN67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>106098.67989059257</v>
       </c>
       <c r="CO67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>105037.69309168664</v>
       </c>
       <c r="CP67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>103987.31616076977</v>
       </c>
       <c r="CQ67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>102947.44299916207</v>
       </c>
       <c r="CR67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>101917.96856917045</v>
       </c>
       <c r="CS67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>100898.78888347874</v>
       </c>
       <c r="CT67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>99889.800994643956</v>
       </c>
       <c r="CU67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>98890.902984697517</v>
       </c>
       <c r="CV67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>97901.993954850535</v>
       </c>
       <c r="CW67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>96922.974015302025</v>
       </c>
       <c r="CX67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>95953.744275149002</v>
       </c>
       <c r="CY67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>94994.206832397511</v>
       </c>
       <c r="CZ67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>94044.264764073538</v>
       </c>
       <c r="DA67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>93103.822116432799</v>
       </c>
       <c r="DB67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>92172.783895268469</v>
       </c>
       <c r="DC67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>91251.056056315778</v>
       </c>
       <c r="DD67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>90338.545495752624</v>
       </c>
       <c r="DE67" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>89435.16004079509</v>
       </c>
     </row>
@@ -7331,107 +7331,107 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:K68" si="116">G67/G69</f>
+        <f t="shared" ref="G68:K68" si="117">G67/G69</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="117">L67/L69</f>
+        <f t="shared" ref="L68" si="118">L67/L69</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:O68" si="118">M67/M69</f>
+        <f t="shared" ref="M68:O68" si="119">M67/M69</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68" si="119">P67/P69</f>
+        <f t="shared" ref="P68" si="120">P67/P69</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68" si="120">Q67/Q69</f>
+        <f t="shared" ref="Q68" si="121">Q67/Q69</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68" si="121">R67/R69</f>
+        <f t="shared" ref="R68" si="122">R67/R69</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:U68" si="122">S67/S69</f>
+        <f t="shared" ref="S68:U68" si="123">S67/S69</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AF68" si="123">V67/V69</f>
+        <f t="shared" ref="V68:AF68" si="124">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.60327492099971269</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.33240352933619532</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.41835212194154686</v>
       </c>
       <c r="AE68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.12709757613424488</v>
       </c>
       <c r="AF68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="AG68" s="3"/>
@@ -7441,51 +7441,51 @@
         <v>2.6545115210681214</v>
       </c>
       <c r="AU68" s="19">
-        <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
+        <f t="shared" ref="AU68:BA68" si="125">+AU67/AU69</f>
         <v>1.6780011264731298</v>
       </c>
       <c r="AV68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>3.7395404610724348</v>
       </c>
       <c r="AW68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>6.4209756583989677</v>
       </c>
       <c r="AX68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>8.7301028185899359</v>
       </c>
       <c r="AY68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>12.590795261194229</v>
       </c>
       <c r="AZ68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>16.972403893738136</v>
       </c>
       <c r="BA68" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>21.586249774527918</v>
       </c>
       <c r="BB68" s="19">
-        <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
+        <f t="shared" ref="BB68:BF68" si="126">+BB67/BB69</f>
         <v>24.935077210470315</v>
       </c>
       <c r="BC68" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>28.69252784225354</v>
       </c>
       <c r="BD68" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>32.90321060848143</v>
       </c>
       <c r="BE68" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>37.616307381369978</v>
       </c>
       <c r="BF68" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>42.886023550381566</v>
       </c>
     </row>
@@ -7593,47 +7593,47 @@
         <v>3481.75</v>
       </c>
       <c r="AV69" s="4">
-        <f t="shared" ref="AV69:AY69" si="126">AU69</f>
+        <f t="shared" ref="AV69:AY69" si="127">AU69</f>
         <v>3481.75</v>
       </c>
       <c r="AW69" s="4">
-        <f t="shared" si="126"/>
-        <v>3481.75</v>
-      </c>
-      <c r="AX69" s="4">
-        <f t="shared" si="126"/>
-        <v>3481.75</v>
-      </c>
-      <c r="AY69" s="4">
-        <f t="shared" si="126"/>
-        <v>3481.75</v>
-      </c>
-      <c r="AZ69" s="4">
-        <f t="shared" ref="AZ69:BA69" si="127">AY69</f>
-        <v>3481.75</v>
-      </c>
-      <c r="BA69" s="4">
         <f t="shared" si="127"/>
         <v>3481.75</v>
       </c>
+      <c r="AX69" s="4">
+        <f t="shared" si="127"/>
+        <v>3481.75</v>
+      </c>
+      <c r="AY69" s="4">
+        <f t="shared" si="127"/>
+        <v>3481.75</v>
+      </c>
+      <c r="AZ69" s="4">
+        <f t="shared" ref="AZ69:BA69" si="128">AY69</f>
+        <v>3481.75</v>
+      </c>
+      <c r="BA69" s="4">
+        <f t="shared" si="128"/>
+        <v>3481.75</v>
+      </c>
       <c r="BB69" s="4">
-        <f t="shared" ref="BB69" si="128">BA69</f>
+        <f t="shared" ref="BB69" si="129">BA69</f>
         <v>3481.75</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" ref="BC69" si="129">BB69</f>
+        <f t="shared" ref="BC69" si="130">BB69</f>
         <v>3481.75</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" ref="BD69" si="130">BC69</f>
+        <f t="shared" ref="BD69" si="131">BC69</f>
         <v>3481.75</v>
       </c>
       <c r="BE69" s="4">
-        <f t="shared" ref="BE69" si="131">BD69</f>
+        <f t="shared" ref="BE69" si="132">BD69</f>
         <v>3481.75</v>
       </c>
       <c r="BF69" s="4">
-        <f t="shared" ref="BF69" si="132">BE69</f>
+        <f t="shared" ref="BF69" si="133">BE69</f>
         <v>3481.75</v>
       </c>
     </row>
@@ -7654,35 +7654,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L71" s="21">
-        <f t="shared" ref="L71" si="133">L51/H51-1</f>
+        <f t="shared" ref="L71" si="134">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M71" s="21">
-        <f t="shared" ref="M71" si="134">M51/I51-1</f>
+        <f t="shared" ref="M71" si="135">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N71" s="21">
-        <f t="shared" ref="N71" si="135">N51/J51-1</f>
+        <f t="shared" ref="N71" si="136">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O71" s="21">
-        <f t="shared" ref="O71" si="136">O51/K51-1</f>
+        <f t="shared" ref="O71" si="137">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P71" s="21">
-        <f t="shared" ref="P71:Q71" si="137">P51/L51-1</f>
+        <f t="shared" ref="P71:Q71" si="138">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q71" s="21">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R71" s="21">
-        <f t="shared" ref="R71:S71" si="138">R51/N51-1</f>
+        <f t="shared" ref="R71:S71" si="139">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S71" s="21">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T71" s="21">
@@ -7698,15 +7698,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="21">
-        <f t="shared" ref="W71:AF71" si="139">W51/S51-1</f>
+        <f t="shared" ref="W71:AF71" si="140">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="Y71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z71" s="21">
@@ -7718,37 +7718,37 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="AB71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="AC71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.11765334961430951</v>
       </c>
       <c r="AD71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.13521798932415607</v>
       </c>
       <c r="AE71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-9.2296136331627587E-2</v>
       </c>
       <c r="AF71" s="21">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-0.1178039215686274</v>
       </c>
       <c r="AG71" s="21"/>
       <c r="AH71" s="21"/>
       <c r="AK71" s="24">
-        <f t="shared" ref="AK71:AM71" si="140">AK51/AJ51-1</f>
+        <f t="shared" ref="AK71:AM71" si="141">AK51/AJ51-1</f>
         <v>0.58845907814070664</v>
       </c>
       <c r="AL71" s="24">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.26503272306147285</v>
       </c>
       <c r="AM71" s="24">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.73012574069611524</v>
       </c>
       <c r="AN71" s="24">
@@ -7780,51 +7780,51 @@
         <v>0.18086993871917945</v>
       </c>
       <c r="AU71" s="24">
-        <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
+        <f t="shared" ref="AU71:AY71" si="142">+AU51/AT51-1</f>
         <v>5.444432726912618E-2</v>
       </c>
       <c r="AV71" s="24">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>-2.3848604099481197E-2</v>
       </c>
       <c r="AW71" s="24">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.2988437649339839</v>
       </c>
       <c r="AX71" s="24">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.24522052781689352</v>
       </c>
       <c r="AY71" s="24">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.24429471024781169</v>
       </c>
       <c r="AZ71" s="24">
-        <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
+        <f t="shared" ref="AZ71:BA71" si="143">+AZ51/AY51-1</f>
         <v>0.19142450022795243</v>
       </c>
       <c r="BA71" s="24">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0.1388373668361893</v>
       </c>
       <c r="BB71" s="24">
-        <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
+        <f t="shared" ref="BB71" si="144">+BB51/BA51-1</f>
         <v>8.173446995315059E-2</v>
       </c>
       <c r="BC71" s="24">
-        <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
+        <f t="shared" ref="BC71" si="145">+BC51/BB51-1</f>
         <v>8.1665310206848085E-2</v>
       </c>
       <c r="BD71" s="24">
-        <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
+        <f t="shared" ref="BD71" si="146">+BD51/BC51-1</f>
         <v>8.1600781805080569E-2</v>
       </c>
       <c r="BE71" s="24">
-        <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
+        <f t="shared" ref="BE71" si="147">+BE51/BD51-1</f>
         <v>8.1540603100230369E-2</v>
       </c>
       <c r="BF71" s="24">
-        <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
+        <f t="shared" ref="BF71" si="148">+BF51/BE51-1</f>
         <v>8.1484511217818634E-2</v>
       </c>
     </row>
@@ -7833,157 +7833,157 @@
         <v>91</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" ref="K72:AF72" si="148">+K37/G37-1</f>
+        <f t="shared" ref="K72:AF72" si="149">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.43333401930319182</v>
       </c>
       <c r="N72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.61086578348722065</v>
       </c>
       <c r="O72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.088229976496113</v>
       </c>
       <c r="P72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.73223259152907394</v>
       </c>
       <c r="R72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70903250816857732</v>
       </c>
       <c r="S72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.31327932598833441</v>
       </c>
       <c r="W72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.36390171844359576</v>
       </c>
       <c r="X72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-8.5285249778303318E-2</v>
       </c>
       <c r="AB72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-4.7590852533573647E-2</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.10358411158026848</v>
       </c>
       <c r="AD72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.10948139036174909</v>
       </c>
       <c r="AE72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-0.12959592564825106</v>
       </c>
       <c r="AF72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-0.13477461730441753</v>
       </c>
       <c r="AG72" s="16"/>
       <c r="AH72" s="16"/>
       <c r="AQ72" s="25">
-        <f t="shared" ref="AQ72:BA72" si="149">+AQ37/AP37-1</f>
+        <f t="shared" ref="AQ72:BA72" si="150">+AQ37/AP37-1</f>
         <v>0.35729051069477991</v>
       </c>
       <c r="AR72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.87559116340959009</v>
       </c>
       <c r="AS72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.403761953095785</v>
       </c>
       <c r="AT72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.37654954785588313</v>
       </c>
       <c r="AU72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.2039764876441881E-2</v>
       </c>
       <c r="AV72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.20593650208172676</v>
       </c>
       <c r="AW72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.25</v>
       </c>
       <c r="AX72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA72" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB72" s="25">
-        <f t="shared" ref="BB72:BF72" si="150">+BB37/BA37-1</f>
+        <f t="shared" ref="BB72:BF72" si="151">+BB37/BA37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC72" s="25">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD72" s="25">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE72" s="25">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF72" s="25">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7992,157 +7992,157 @@
         <v>92</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" ref="K73:AF73" si="151">+K42/G42-1</f>
+        <f t="shared" ref="K73:AF73" si="152">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.50835629972440333</v>
       </c>
       <c r="N73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.71375046476818782</v>
       </c>
       <c r="O73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.75644771700171409</v>
       </c>
       <c r="P73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.63975150996993846</v>
       </c>
       <c r="R73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.7014080119272128</v>
       </c>
       <c r="S73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-1.687129090216144E-2</v>
       </c>
       <c r="AB73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-0.14356681259120285</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.159813978554558E-2</v>
       </c>
       <c r="AD73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AE73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-0.16326888508921922</v>
       </c>
       <c r="AF73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-1.4288113603890817E-3</v>
       </c>
       <c r="AG73" s="16"/>
       <c r="AH73" s="16"/>
       <c r="AQ73" s="25">
-        <f t="shared" ref="AQ73:BA73" si="152">+AQ42/AP42-1</f>
+        <f t="shared" ref="AQ73:BA73" si="153">+AQ42/AP42-1</f>
         <v>0.39565262627590125</v>
       </c>
       <c r="AR73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.8252981439448186</v>
       </c>
       <c r="AS73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.47203204567389845</v>
       </c>
       <c r="AT73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.34781700789494252</v>
       </c>
       <c r="AU73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>-7.1121997199327103E-2</v>
       </c>
       <c r="AV73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AW73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.25</v>
       </c>
       <c r="AX73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA73" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB73" s="25">
-        <f t="shared" ref="BB73:BF73" si="153">+BB42/BA42-1</f>
+        <f t="shared" ref="BB73:BF73" si="154">+BB42/BA42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC73" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD73" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE73" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF73" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -8151,23 +8151,23 @@
         <v>90</v>
       </c>
       <c r="K74" s="16">
-        <f t="shared" ref="K74:O74" si="154">K45/G45-1</f>
+        <f t="shared" ref="K74:O74" si="155">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N74" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O74" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P74" s="16">
@@ -8175,7 +8175,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" ref="Q74" si="155">Q45/M45-1</f>
+        <f t="shared" ref="Q74" si="156">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R74" s="16">
@@ -8183,19 +8183,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S74" s="16">
-        <f t="shared" ref="S74:U74" si="156">S45/O45-1</f>
+        <f t="shared" ref="S74:U74" si="157">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T74" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V74" s="16">
-        <f t="shared" ref="V74" si="157">V45/R45-1</f>
+        <f t="shared" ref="V74" si="158">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W74" s="16">
@@ -8203,19 +8203,19 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X74" s="16">
-        <f t="shared" ref="X74" si="158">X45/T45-1</f>
+        <f t="shared" ref="X74" si="159">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" ref="Y74" si="159">Y45/U45-1</f>
+        <f t="shared" ref="Y74" si="160">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="16">
-        <f t="shared" ref="Z74:AF74" si="160">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AF74" si="161">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB74" s="16">
@@ -8223,19 +8223,19 @@
         <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6.7657179716614557E-2</v>
       </c>
       <c r="AD74" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.16495545987983684</v>
       </c>
       <c r="AE74" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.21476306196840822</v>
       </c>
       <c r="AF74" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.14803022126281706</v>
       </c>
       <c r="AG74" s="16"/>
@@ -8250,67 +8250,67 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16">
-        <f t="shared" ref="G75:K75" si="161">G53/G45</f>
+        <f t="shared" ref="G75:K75" si="162">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K75" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" ref="L75" si="162">L53/L45</f>
+        <f t="shared" ref="L75" si="163">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" ref="M75" si="163">M53/M45</f>
+        <f t="shared" ref="M75" si="164">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N75" s="16">
-        <f t="shared" ref="N75:U75" si="164">N53/N45</f>
+        <f t="shared" ref="N75:U75" si="165">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V75" s="16">
-        <f t="shared" ref="V75:AD75" si="165">V53/V45</f>
+        <f t="shared" ref="V75:AD75" si="166">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W75" s="16">
@@ -8318,61 +8318,61 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.13858607663248787</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AD75" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AE75" s="16">
-        <f t="shared" ref="AE75:AF75" si="166">AE53/AE45</f>
+        <f t="shared" ref="AE75:AF75" si="167">AE53/AE45</f>
         <v>0.1132688588007737</v>
       </c>
       <c r="AF75" s="16">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.14062203078482297</v>
       </c>
       <c r="AG75" s="16"/>
       <c r="AH75" s="16"/>
       <c r="AQ75" s="16">
-        <f t="shared" ref="AQ75:AU75" si="167">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="168">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.14851006001488046</v>
       </c>
       <c r="AV75" s="16"/>
@@ -8388,31 +8388,31 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16">
-        <f t="shared" ref="G76:K76" si="168">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="169">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="16">
-        <f t="shared" ref="L76" si="169">+L59/L51</f>
+        <f t="shared" ref="L76" si="170">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" ref="M76" si="170">+M59/M51</f>
+        <f t="shared" ref="M76" si="171">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="16">
@@ -8420,141 +8420,141 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="16">
-        <f t="shared" ref="O76:AD76" si="171">+O59/O51</f>
+        <f t="shared" ref="O76:AD76" si="172">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="40">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.15717279857679209</v>
       </c>
       <c r="AD76" s="16">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.15511900037130005</v>
       </c>
       <c r="AE76" s="16">
-        <f t="shared" ref="AE76:AF76" si="172">+AE59/AE51</f>
+        <f t="shared" ref="AE76:AF76" si="173">+AE59/AE51</f>
         <v>0.16307214895267649</v>
       </c>
       <c r="AF76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.17238620199146515</v>
       </c>
       <c r="AG76" s="16"/>
       <c r="AH76" s="16"/>
       <c r="AQ76" s="16">
-        <f t="shared" ref="AQ76:BF76" si="173">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="174">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AS76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.16471225777031828</v>
       </c>
       <c r="AV76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.22985752587485617</v>
       </c>
       <c r="AW76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25506572778682646</v>
       </c>
       <c r="AX76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25239469462195546</v>
       </c>
       <c r="AY76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.2688449395488649</v>
       </c>
       <c r="AZ76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.28443112518959862</v>
       </c>
       <c r="BA76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.2993291081869508</v>
       </c>
       <c r="BB76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.29953516962407462</v>
       </c>
       <c r="BC76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.29968042854680105</v>
       </c>
       <c r="BD76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.2997689777818105</v>
       </c>
       <c r="BE76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.29980465126954314</v>
       </c>
       <c r="BF76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.29979104278173424</v>
       </c>
     </row>
@@ -8601,27 +8601,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="174">M67</f>
+        <f t="shared" ref="M79:R79" si="175">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8637,31 +8637,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="175">V67</f>
+        <f t="shared" ref="V79:AD79" si="176">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8669,7 +8669,7 @@
         <v>1157.0966856192958</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE79" s="5"/>
@@ -9183,59 +9183,59 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="176">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="177">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1641</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>3147</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>4585</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="177">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AA88" si="178">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2351</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>5100</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>3278</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2513</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>242</v>
       </c>
       <c r="AB88" s="5">
@@ -9395,59 +9395,59 @@
         <v>1868</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="178">O88-O90</f>
+        <f t="shared" ref="O91:R91" si="179">O88-O90</f>
         <v>293</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>619</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1328</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2775</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" ref="S91" si="179">S88-S90</f>
+        <f t="shared" ref="S91" si="180">S88-S90</f>
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AB91" si="180">T88-T90</f>
+        <f t="shared" ref="T91:AB91" si="181">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>3297</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>1420</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>441</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>1005</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>848</v>
       </c>
       <c r="Z91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>2064</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-2531</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>1342</v>
       </c>
       <c r="AC91" s="5"/>
@@ -9488,51 +9488,51 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="181">SUM(N91:Q91)</f>
+        <f t="shared" ref="Q92:V92" si="182">SUM(N91:Q91)</f>
         <v>4108</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5015</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>6950</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>6952</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>8921</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AB92" si="182">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AB92" si="183">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>6163</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>3714</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>4358</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1386</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1723</v>
       </c>
       <c r="AC92" s="5"/>
@@ -9605,23 +9605,23 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AB94" si="183">X95-X112</f>
+        <f t="shared" ref="X94:AB94" si="184">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>26958</v>
       </c>
       <c r="Z94" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>23864</v>
       </c>
       <c r="AA94" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>21503</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>22975</v>
       </c>
       <c r="AC94" s="5"/>
@@ -9639,47 +9639,47 @@
         <v>29706.38042209782</v>
       </c>
       <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="184">AU94+AV67</f>
+        <f t="shared" ref="AV94:BA94" si="185">AU94+AV67</f>
         <v>42726.525422436767</v>
       </c>
       <c r="AW94" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>65082.757421067377</v>
       </c>
       <c r="AX94" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>95478.792909692886</v>
       </c>
       <c r="AY94" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>139316.79431035591</v>
       </c>
       <c r="AZ94" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>198410.46156737866</v>
       </c>
       <c r="BA94" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>273568.38671984122</v>
       </c>
       <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="185">BA94+BB67</f>
+        <f t="shared" ref="BB94" si="186">BA94+BB67</f>
         <v>360386.09179739625</v>
       </c>
       <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="186">BB94+BC67</f>
+        <f t="shared" ref="BC94" si="187">BB94+BC67</f>
         <v>460286.30061216251</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="187">BC94+BD67</f>
+        <f t="shared" ref="BD94" si="188">BC94+BD67</f>
         <v>574847.05414824269</v>
       </c>
       <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="188">BD94+BE67</f>
+        <f t="shared" ref="BE94" si="189">BD94+BE67</f>
         <v>705817.63237332762</v>
       </c>
       <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="189">BE94+BF67</f>
+        <f t="shared" ref="BF94" si="190">BE94+BF67</f>
         <v>855136.04486986867</v>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
         <v>25105</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="190">X95+Y67</f>
+        <f t="shared" ref="Y95" si="191">X95+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z95" s="35">
@@ -10288,39 +10288,39 @@
         <v>62131</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="191">SUM(T95:T105)</f>
+        <f t="shared" ref="T106:AB106" si="192">SUM(T95:T105)</f>
         <v>68513</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>74426</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>86833</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>25105</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>26958</v>
       </c>
       <c r="Z106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>106618</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>109226</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>112832</v>
       </c>
       <c r="AC106" s="5"/>
@@ -10622,51 +10622,51 @@
         <v>1201</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" ref="AU118:BA118" si="192">+AU37*AU123*8/1000</f>
+        <f t="shared" ref="AU118:BA118" si="193">+AU37*AU123*8/1000</f>
         <v>1774.5040319999998</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>2853.2522470400008</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>4458.2066360000008</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>6419.8175558400008</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>8987.7445781760016</v>
       </c>
       <c r="AZ118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>11812.464302745599</v>
       </c>
       <c r="BA118" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>14617.924574647679</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="193">+BB37*BB123*8/1000</f>
+        <f t="shared" ref="BB118:BF118" si="194">+BB37*BB123*8/1000</f>
         <v>15775.176936807287</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>17011.609723746242</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>18332.247847037066</v>
       </c>
       <c r="BE118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>19742.420758347613</v>
       </c>
       <c r="BF118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>21247.780341171616</v>
       </c>
     </row>
@@ -10712,47 +10712,47 @@
         <v>221.81300399999998</v>
       </c>
       <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="194">+AV118/8</f>
+        <f t="shared" ref="AV121:BA121" si="195">+AV118/8</f>
         <v>356.6565308800001</v>
       </c>
       <c r="AW121" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>557.2758295000001</v>
       </c>
       <c r="AX121" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>802.47719448000009</v>
       </c>
       <c r="AY121" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1123.4680722720002</v>
       </c>
       <c r="AZ121" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1476.5580378431998</v>
       </c>
       <c r="BA121" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1827.2405718309599</v>
       </c>
       <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="195">+BB118/8</f>
+        <f t="shared" ref="BB121:BF121" si="196">+BB118/8</f>
         <v>1971.8971171009109</v>
       </c>
       <c r="BC121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>2126.4512154682802</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>2291.5309808796333</v>
       </c>
       <c r="BE121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>2467.8025947934516</v>
       </c>
       <c r="BF121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>2655.972542646452</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869E8D3-D242-40A5-A03B-A39822244ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59098DC2-9785-4D90-91E3-F1C1BB6C79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -597,13 +597,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -728,86 +734,89 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,16 +841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>551851</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22022</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>7712</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>37477</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>117330</xdr:rowOff>
+      <xdr:rowOff>99471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -858,7 +867,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20220976" y="47625"/>
+          <a:off x="20810335" y="29766"/>
           <a:ext cx="15455" cy="21929580"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1248,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1265,8 +1274,8 @@
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="42">
-        <v>312.19</v>
+      <c r="K2" s="41">
+        <v>449.31</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1277,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3225.4488889999998</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>121</v>
+        <v>3325.8191670000001</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1292,7 +1301,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>1006952.8886569099</v>
+        <v>1494323.8099247701</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1300,11 +1309,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>15587+21195</f>
-        <v>36782</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>121</v>
+        <f>18289+23358</f>
+        <v>41647</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1315,11 +1324,11 @@
         <v>4</v>
       </c>
       <c r="K6" s="17">
-        <f>2040+5180</f>
-        <v>7220</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>121</v>
+        <f>1924+5778</f>
+        <v>7702</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1331,7 +1340,7 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>977390.88865690993</v>
+        <v>1460378.8099247701</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1383,11 +1392,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2692,9 @@
       <c r="AF35" s="5">
         <v>10394</v>
       </c>
-      <c r="AG35" s="5"/>
+      <c r="AG35" s="5">
+        <v>15933</v>
+      </c>
       <c r="AH35" s="5"/>
       <c r="AP35" s="4">
         <f>SUM(G35:J35)</f>
@@ -2798,7 +2809,9 @@
       <c r="AF36" s="5">
         <v>373728</v>
       </c>
-      <c r="AG36" s="5"/>
+      <c r="AG36" s="5">
+        <v>481166</v>
+      </c>
       <c r="AH36" s="5"/>
       <c r="AP36" s="4">
         <f>SUM(G36:J36)</f>
@@ -2882,7 +2895,7 @@
         <v>308600</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" ref="S37:AF37" si="12">S36+S35</f>
+        <f t="shared" ref="S37:AG37" si="12">S36+S35</f>
         <v>310048</v>
       </c>
       <c r="T37" s="7">
@@ -2937,7 +2950,10 @@
         <f t="shared" si="12"/>
         <v>384122</v>
       </c>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="7">
+        <f t="shared" si="12"/>
+        <v>497099</v>
+      </c>
       <c r="AH37" s="7"/>
       <c r="AP37" s="6">
         <f t="shared" ref="AP37:AT37" si="13">+AP35+AP36</f>
@@ -3120,7 +3136,10 @@
         <f>+AB38*1.05</f>
         <v>43825.288992602873</v>
       </c>
-      <c r="AG38" s="5"/>
+      <c r="AG38" s="5">
+        <f>+AC38*1.05</f>
+        <v>43387.036102676844</v>
+      </c>
       <c r="AH38" s="5"/>
       <c r="AP38" s="5">
         <f t="shared" ref="AP38:AU38" si="18">AP45/AP37*1000000</f>
@@ -3313,7 +3332,9 @@
       <c r="AF40" s="5">
         <v>13409</v>
       </c>
-      <c r="AG40" s="5"/>
+      <c r="AG40" s="5">
+        <v>11624</v>
+      </c>
       <c r="AH40" s="5"/>
       <c r="AP40" s="4">
         <f>SUM(G40:J40)</f>
@@ -3428,7 +3449,9 @@
       <c r="AF41" s="5">
         <v>396835</v>
       </c>
-      <c r="AG41" s="5"/>
+      <c r="AG41" s="5">
+        <v>435826</v>
+      </c>
       <c r="AH41" s="5"/>
       <c r="AP41" s="4">
         <f>SUM(G41:J41)</f>
@@ -3567,7 +3590,10 @@
         <f>+AF40+AF41</f>
         <v>410244</v>
       </c>
-      <c r="AG42" s="7"/>
+      <c r="AG42" s="7">
+        <f>+AG40+AG41</f>
+        <v>447450</v>
+      </c>
       <c r="AH42" s="7"/>
       <c r="AP42" s="6">
         <f>+AP40+AP41</f>
@@ -3852,7 +3878,9 @@
       <c r="AF45" s="5">
         <v>15787</v>
       </c>
-      <c r="AG45" s="5"/>
+      <c r="AG45" s="5">
+        <v>20359</v>
+      </c>
       <c r="AH45" s="5"/>
       <c r="AP45" s="4">
         <f t="shared" ref="AP45:AP50" si="31">SUM(G45:J45)</f>
@@ -4012,7 +4040,9 @@
       <c r="AF46" s="5">
         <v>439</v>
       </c>
-      <c r="AG46" s="5"/>
+      <c r="AG46" s="5">
+        <v>417</v>
+      </c>
       <c r="AH46" s="5"/>
       <c r="AP46" s="4">
         <f t="shared" si="31"/>
@@ -4128,7 +4158,9 @@
       <c r="AF47" s="5">
         <v>435</v>
       </c>
-      <c r="AG47" s="5"/>
+      <c r="AG47" s="5">
+        <v>429</v>
+      </c>
       <c r="AH47" s="5"/>
       <c r="AP47" s="4">
         <f t="shared" si="31"/>
@@ -4224,7 +4256,7 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AF48" si="41">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AG48" si="41">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
@@ -4267,7 +4299,10 @@
         <f t="shared" si="41"/>
         <v>16661</v>
       </c>
-      <c r="AG48" s="7"/>
+      <c r="AG48" s="7">
+        <f t="shared" si="41"/>
+        <v>21205</v>
+      </c>
       <c r="AH48" s="7"/>
       <c r="AP48" s="6">
         <f>SUM(AP45:AP47)</f>
@@ -4427,7 +4462,9 @@
       <c r="AF49" s="5">
         <v>2789</v>
       </c>
-      <c r="AG49" s="5"/>
+      <c r="AG49" s="5">
+        <v>3415</v>
+      </c>
       <c r="AH49" s="5"/>
       <c r="AJ49" s="4">
         <v>1921.877</v>
@@ -4552,7 +4589,9 @@
       <c r="AF50" s="5">
         <v>3046</v>
       </c>
-      <c r="AG50" s="5"/>
+      <c r="AG50" s="5">
+        <v>3475</v>
+      </c>
       <c r="AH50" s="5"/>
       <c r="AJ50" s="4">
         <v>91.619</v>
@@ -4657,7 +4696,7 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AF51" si="48">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AG51" si="48">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
@@ -4700,7 +4739,10 @@
         <f t="shared" si="48"/>
         <v>22496</v>
       </c>
-      <c r="AG51" s="7"/>
+      <c r="AG51" s="7">
+        <f t="shared" si="48"/>
+        <v>28095</v>
+      </c>
       <c r="AH51" s="7"/>
       <c r="AJ51" s="6">
         <f>AJ49+AJ50</f>
@@ -4880,7 +4922,9 @@
       <c r="AF52" s="5">
         <v>13567</v>
       </c>
-      <c r="AG52" s="5"/>
+      <c r="AG52" s="5">
+        <v>17365</v>
+      </c>
       <c r="AH52" s="5"/>
       <c r="AJ52" s="4">
         <v>1483.3209999999999</v>
@@ -5035,7 +5079,7 @@
         <v>3428</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" ref="AA53:AF53" si="62">AA45-AA52</f>
+        <f t="shared" ref="AA53:AG53" si="62">AA45-AA52</f>
         <v>2563</v>
       </c>
       <c r="AB53" s="5">
@@ -5058,7 +5102,10 @@
         <f t="shared" si="62"/>
         <v>2220</v>
       </c>
-      <c r="AG53" s="5"/>
+      <c r="AG53" s="5">
+        <f t="shared" si="62"/>
+        <v>2994</v>
+      </c>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
         <f t="shared" si="37"/>
@@ -5163,7 +5210,9 @@
       <c r="AF54" s="5">
         <v>0</v>
       </c>
-      <c r="AG54" s="5"/>
+      <c r="AG54" s="43">
+        <v>0</v>
+      </c>
       <c r="AH54" s="5"/>
       <c r="AU54" s="4">
         <f t="shared" si="57"/>
@@ -5258,7 +5307,9 @@
       <c r="AF55" s="5">
         <v>228</v>
       </c>
-      <c r="AG55" s="5"/>
+      <c r="AG55" s="5">
+        <v>225</v>
+      </c>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
         <f t="shared" si="37"/>
@@ -5342,7 +5393,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AF56" si="67">V48-V55-V52</f>
+        <f t="shared" ref="V56:AG56" si="67">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5385,7 +5436,10 @@
         <f t="shared" si="67"/>
         <v>2866</v>
       </c>
-      <c r="AG56" s="5"/>
+      <c r="AG56" s="5">
+        <f t="shared" si="67"/>
+        <v>3615</v>
+      </c>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
         <f t="shared" si="37"/>
@@ -5532,7 +5586,9 @@
       <c r="AF57" s="5">
         <v>1943</v>
       </c>
-      <c r="AG57" s="5"/>
+      <c r="AG57" s="5">
+        <v>2342</v>
+      </c>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
         <f t="shared" si="37"/>
@@ -5635,7 +5691,9 @@
       <c r="AF58" s="5">
         <v>2880</v>
       </c>
-      <c r="AG58" s="5"/>
+      <c r="AG58" s="5">
+        <v>3109</v>
+      </c>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
         <f t="shared" si="37"/>
@@ -5715,7 +5773,7 @@
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AF59" si="72">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AG60" si="72">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
@@ -5762,7 +5820,10 @@
         <f t="shared" si="72"/>
         <v>3878</v>
       </c>
-      <c r="AG59" s="5"/>
+      <c r="AG59" s="5">
+        <f t="shared" si="72"/>
+        <v>5054</v>
+      </c>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
         <f t="shared" ref="AS59" si="73">+AS51*0.25</f>
@@ -5909,7 +5970,9 @@
       <c r="AF60" s="5">
         <v>1589</v>
       </c>
-      <c r="AG60" s="5"/>
+      <c r="AG60" s="5">
+        <v>1630</v>
+      </c>
       <c r="AH60" s="5"/>
       <c r="AS60" s="4">
         <f t="shared" si="37"/>
@@ -6058,7 +6121,10 @@
       <c r="AF61" s="5">
         <v>1366</v>
       </c>
-      <c r="AG61" s="5"/>
+      <c r="AG61" s="5">
+        <f>1562+238</f>
+        <v>1800</v>
+      </c>
       <c r="AH61" s="5"/>
       <c r="AS61" s="4">
         <f t="shared" si="37"/>
@@ -6186,7 +6252,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AF62" si="86">V60+V61</f>
+        <f t="shared" ref="V62:AG62" si="86">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6229,7 +6295,10 @@
         <f t="shared" si="86"/>
         <v>2955</v>
       </c>
-      <c r="AG62" s="5"/>
+      <c r="AG62" s="5">
+        <f t="shared" si="86"/>
+        <v>3430</v>
+      </c>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
         <f t="shared" ref="AS62" si="87">+AS60+AS61</f>
@@ -6400,7 +6469,10 @@
         <f>AF59-AF62</f>
         <v>923</v>
       </c>
-      <c r="AG63" s="5"/>
+      <c r="AG63" s="5">
+        <f>AG59-AG62</f>
+        <v>1624</v>
+      </c>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
         <f t="shared" ref="AS63:AT63" si="97">AS59-AS62</f>
@@ -6565,7 +6637,10 @@
         <f>392-86+320</f>
         <v>626</v>
       </c>
-      <c r="AG64" s="5"/>
+      <c r="AG64" s="5">
+        <f>439-76-28</f>
+        <v>335</v>
+      </c>
       <c r="AH64" s="5"/>
       <c r="AT64" s="4">
         <f t="shared" si="56"/>
@@ -6689,7 +6764,7 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AF65" si="104">V63+V64</f>
+        <f t="shared" ref="V65:AG65" si="104">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
@@ -6732,7 +6807,10 @@
         <f t="shared" si="104"/>
         <v>1549</v>
       </c>
-      <c r="AG65" s="5"/>
+      <c r="AG65" s="5">
+        <f t="shared" si="104"/>
+        <v>1959</v>
+      </c>
       <c r="AH65" s="5"/>
       <c r="AT65" s="4">
         <f>+AT63+AT64</f>
@@ -6896,7 +6974,9 @@
         <f>359+18</f>
         <v>377</v>
       </c>
-      <c r="AG66" s="5"/>
+      <c r="AG66" s="5">
+        <v>570</v>
+      </c>
       <c r="AH66" s="5"/>
       <c r="AT66" s="4">
         <f t="shared" si="56"/>
@@ -7020,7 +7100,7 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AF67" si="111">V65-V66</f>
+        <f t="shared" ref="V67:AG67" si="111">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
@@ -7063,7 +7143,10 @@
         <f t="shared" si="111"/>
         <v>1172</v>
       </c>
-      <c r="AG67" s="5"/>
+      <c r="AG67" s="5">
+        <f t="shared" si="111"/>
+        <v>1389</v>
+      </c>
       <c r="AH67" s="5"/>
       <c r="AT67" s="4">
         <f>+AT65-AT66</f>
@@ -7391,7 +7474,7 @@
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AF68" si="124">V67/V69</f>
+        <f t="shared" ref="V68:AG68" si="124">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
@@ -7434,7 +7517,10 @@
         <f t="shared" si="124"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="AG68" s="3"/>
+      <c r="AG68" s="3">
+        <f t="shared" si="124"/>
+        <v>0.43043074062596837</v>
+      </c>
       <c r="AH68" s="3"/>
       <c r="AT68" s="19">
         <f>+AT67/AT69</f>
@@ -7582,7 +7668,9 @@
       <c r="AF69" s="5">
         <v>3223</v>
       </c>
-      <c r="AG69" s="5"/>
+      <c r="AG69" s="5">
+        <v>3227</v>
+      </c>
       <c r="AH69" s="5"/>
       <c r="AT69" s="4">
         <f>AVERAGE(W69:Z69)</f>
@@ -7698,7 +7786,7 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="21">
-        <f t="shared" ref="W71:AF71" si="140">W51/S51-1</f>
+        <f t="shared" ref="W71:AG71" si="140">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="21">
@@ -7737,7 +7825,10 @@
         <f t="shared" si="140"/>
         <v>-0.1178039215686274</v>
       </c>
-      <c r="AG71" s="21"/>
+      <c r="AG71" s="21">
+        <f t="shared" si="140"/>
+        <v>7.6552038116205923E-2</v>
+      </c>
       <c r="AH71" s="21"/>
       <c r="AK71" s="24">
         <f t="shared" ref="AK71:AM71" si="141">AK51/AJ51-1</f>
@@ -7833,7 +7924,7 @@
         <v>91</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" ref="K72:AF72" si="149">+K37/G37-1</f>
+        <f t="shared" ref="K72:AG72" si="149">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="16">
@@ -7920,7 +8011,10 @@
         <f t="shared" si="149"/>
         <v>-0.13477461730441753</v>
       </c>
-      <c r="AG72" s="16"/>
+      <c r="AG72" s="16">
+        <f t="shared" si="149"/>
+        <v>3.5355018555615292E-2</v>
+      </c>
       <c r="AH72" s="16"/>
       <c r="AQ72" s="25">
         <f t="shared" ref="AQ72:BA72" si="150">+AQ37/AP37-1</f>
@@ -7992,7 +8086,7 @@
         <v>92</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" ref="K73:AF73" si="152">+K42/G42-1</f>
+        <f t="shared" ref="K73:AG73" si="152">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="16">
@@ -8079,7 +8173,10 @@
         <f t="shared" si="152"/>
         <v>-1.4288113603890817E-3</v>
       </c>
-      <c r="AG73" s="16"/>
+      <c r="AG73" s="16">
+        <f t="shared" si="152"/>
+        <v>2.7484881884361156E-2</v>
+      </c>
       <c r="AH73" s="16"/>
       <c r="AQ73" s="25">
         <f t="shared" ref="AQ73:BA73" si="153">+AQ42/AP42-1</f>
@@ -8211,7 +8308,7 @@
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="16">
-        <f t="shared" ref="Z74:AF74" si="161">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AG74" si="161">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="16">
@@ -8238,7 +8335,10 @@
         <f t="shared" si="161"/>
         <v>-0.14803022126281706</v>
       </c>
-      <c r="AG74" s="16"/>
+      <c r="AG74" s="16">
+        <f t="shared" si="161"/>
+        <v>2.6200357716555045E-2</v>
+      </c>
       <c r="AH74" s="16"/>
     </row>
     <row r="75" spans="2:109" x14ac:dyDescent="0.2">
@@ -8353,26 +8453,29 @@
         <f t="shared" si="167"/>
         <v>0.14062203078482297</v>
       </c>
-      <c r="AG75" s="16"/>
+      <c r="AG75" s="16">
+        <f t="shared" ref="AG75" si="168">AG53/AG45</f>
+        <v>0.14706026818606022</v>
+      </c>
       <c r="AH75" s="16"/>
       <c r="AQ75" s="16">
-        <f t="shared" ref="AQ75:AU75" si="168">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="169">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="16">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.14851006001488046</v>
       </c>
       <c r="AV75" s="16"/>
@@ -8388,31 +8491,31 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16">
-        <f t="shared" ref="G76:K76" si="169">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="170">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="16">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="16">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="16">
-        <f t="shared" ref="L76" si="170">+L59/L51</f>
+        <f t="shared" ref="L76" si="171">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" ref="M76" si="171">+M59/M51</f>
+        <f t="shared" ref="M76" si="172">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="16">
@@ -8420,141 +8523,144 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="16">
-        <f t="shared" ref="O76:AD76" si="172">+O59/O51</f>
+        <f t="shared" ref="O76:AD76" si="173">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="40">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.15717279857679209</v>
       </c>
       <c r="AD76" s="16">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.15511900037130005</v>
       </c>
       <c r="AE76" s="16">
-        <f t="shared" ref="AE76:AF76" si="173">+AE59/AE51</f>
+        <f t="shared" ref="AE76:AF76" si="174">+AE59/AE51</f>
         <v>0.16307214895267649</v>
       </c>
       <c r="AF76" s="16">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.17238620199146515</v>
       </c>
-      <c r="AG76" s="16"/>
+      <c r="AG76" s="16">
+        <f t="shared" ref="AG76" si="175">+AG59/AG51</f>
+        <v>0.1798896600818651</v>
+      </c>
       <c r="AH76" s="16"/>
       <c r="AQ76" s="16">
-        <f t="shared" ref="AQ76:BF76" si="174">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="176">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AS76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.16471225777031828</v>
       </c>
       <c r="AV76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.22985752587485617</v>
       </c>
       <c r="AW76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.25506572778682646</v>
       </c>
       <c r="AX76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.25239469462195546</v>
       </c>
       <c r="AY76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.2688449395488649</v>
       </c>
       <c r="AZ76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.28443112518959862</v>
       </c>
       <c r="BA76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.2993291081869508</v>
       </c>
       <c r="BB76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.29953516962407462</v>
       </c>
       <c r="BC76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.29968042854680105</v>
       </c>
       <c r="BD76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.2997689777818105</v>
       </c>
       <c r="BE76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.29980465126954314</v>
       </c>
       <c r="BF76" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.29979104278173424</v>
       </c>
     </row>
@@ -8601,27 +8707,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="175">M67</f>
+        <f t="shared" ref="M79:R79" si="177">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8637,31 +8743,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="176">V67</f>
+        <f t="shared" ref="V79:AD79" si="178">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8669,7 +8775,7 @@
         <v>1157.0966856192958</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE79" s="5"/>
@@ -8753,7 +8859,7 @@
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1187472.0517001939</v>
+        <v>1191855.0517001939</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8898,7 +9004,7 @@
       </c>
       <c r="BH82" s="19">
         <f>BH80/Main!K3</f>
-        <v>368.15714418849501</v>
+        <v>358.36435832898485</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9183,59 +9289,59 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="177">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="179">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>1641</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>3147</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>4585</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="178">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AA88" si="180">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>2351</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>5100</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>3278</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>2513</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>242</v>
       </c>
       <c r="AB88" s="5">
@@ -9395,59 +9501,59 @@
         <v>1868</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="179">O88-O90</f>
+        <f t="shared" ref="O91:R91" si="181">O88-O90</f>
         <v>293</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>619</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>1328</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>2775</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" ref="S91" si="180">S88-S90</f>
+        <f t="shared" ref="S91" si="182">S88-S90</f>
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AB91" si="181">T88-T90</f>
+        <f t="shared" ref="T91:AB91" si="183">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>3297</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1420</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>441</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1005</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>848</v>
       </c>
       <c r="Z91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>2064</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>-2531</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1342</v>
       </c>
       <c r="AC91" s="5"/>
@@ -9488,51 +9594,51 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="182">SUM(N91:Q91)</f>
+        <f t="shared" ref="Q92:V92" si="184">SUM(N91:Q91)</f>
         <v>4108</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>5015</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>6950</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>6952</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>8921</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AB92" si="183">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AB92" si="185">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>6163</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>3714</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>4358</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>1386</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>1723</v>
       </c>
       <c r="AC92" s="5"/>
@@ -9605,23 +9711,23 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AB94" si="184">X95-X112</f>
+        <f t="shared" ref="X94:AB94" si="186">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>26958</v>
       </c>
       <c r="Z94" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>23864</v>
       </c>
       <c r="AA94" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>21503</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>22975</v>
       </c>
       <c r="AC94" s="5"/>
@@ -9639,47 +9745,47 @@
         <v>29706.38042209782</v>
       </c>
       <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="185">AU94+AV67</f>
+        <f t="shared" ref="AV94:BA94" si="187">AU94+AV67</f>
         <v>42726.525422436767</v>
       </c>
       <c r="AW94" s="4">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>65082.757421067377</v>
       </c>
       <c r="AX94" s="4">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>95478.792909692886</v>
       </c>
       <c r="AY94" s="4">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>139316.79431035591</v>
       </c>
       <c r="AZ94" s="4">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>198410.46156737866</v>
       </c>
       <c r="BA94" s="4">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>273568.38671984122</v>
       </c>
       <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="186">BA94+BB67</f>
+        <f t="shared" ref="BB94" si="188">BA94+BB67</f>
         <v>360386.09179739625</v>
       </c>
       <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="187">BB94+BC67</f>
+        <f t="shared" ref="BC94" si="189">BB94+BC67</f>
         <v>460286.30061216251</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="188">BC94+BD67</f>
+        <f t="shared" ref="BD94" si="190">BC94+BD67</f>
         <v>574847.05414824269</v>
       </c>
       <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="189">BD94+BE67</f>
+        <f t="shared" ref="BE94" si="191">BD94+BE67</f>
         <v>705817.63237332762</v>
       </c>
       <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="190">BE94+BF67</f>
+        <f t="shared" ref="BF94" si="192">BE94+BF67</f>
         <v>855136.04486986867</v>
       </c>
     </row>
@@ -9725,7 +9831,7 @@
         <v>25105</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="191">X95+Y67</f>
+        <f t="shared" ref="Y95" si="193">X95+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z95" s="35">
@@ -10288,39 +10394,39 @@
         <v>62131</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="192">SUM(T95:T105)</f>
+        <f t="shared" ref="T106:AB106" si="194">SUM(T95:T105)</f>
         <v>68513</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>74426</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>86833</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>25105</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>26958</v>
       </c>
       <c r="Z106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>106618</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>109226</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>112832</v>
       </c>
       <c r="AC106" s="5"/>
@@ -10622,51 +10728,51 @@
         <v>1201</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" ref="AU118:BA118" si="193">+AU37*AU123*8/1000</f>
+        <f t="shared" ref="AU118:BA118" si="195">+AU37*AU123*8/1000</f>
         <v>1774.5040319999998</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>2853.2522470400008</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>4458.2066360000008</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>6419.8175558400008</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>8987.7445781760016</v>
       </c>
       <c r="AZ118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>11812.464302745599</v>
       </c>
       <c r="BA118" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>14617.924574647679</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="194">+BB37*BB123*8/1000</f>
+        <f t="shared" ref="BB118:BF118" si="196">+BB37*BB123*8/1000</f>
         <v>15775.176936807287</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>17011.609723746242</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>18332.247847037066</v>
       </c>
       <c r="BE118" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>19742.420758347613</v>
       </c>
       <c r="BF118" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>21247.780341171616</v>
       </c>
     </row>
@@ -10712,47 +10818,47 @@
         <v>221.81300399999998</v>
       </c>
       <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="195">+AV118/8</f>
+        <f t="shared" ref="AV121:BA121" si="197">+AV118/8</f>
         <v>356.6565308800001</v>
       </c>
       <c r="AW121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>557.2758295000001</v>
       </c>
       <c r="AX121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>802.47719448000009</v>
       </c>
       <c r="AY121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1123.4680722720002</v>
       </c>
       <c r="AZ121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1476.5580378431998</v>
       </c>
       <c r="BA121" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1827.2405718309599</v>
       </c>
       <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="196">+BB118/8</f>
+        <f t="shared" ref="BB121:BF121" si="198">+BB118/8</f>
         <v>1971.8971171009109</v>
       </c>
       <c r="BC121" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>2126.4512154682802</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>2291.5309808796333</v>
       </c>
       <c r="BE121" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>2467.8025947934516</v>
       </c>
       <c r="BF121" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>2655.972542646452</v>
       </c>
     </row>
